--- a/notofes.xlsx
+++ b/notofes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masayoshi Tanishita\Downloads\notofes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB2DF0D-DD04-44A0-B5BE-7EC03EA62087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A31C5C-4507-4098-8670-5F9A178E82EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="795" windowWidth="16110" windowHeight="14655" xr2:uid="{61E8EE44-AB5E-45B0-A628-B0D1DC94CDB2}"/>
+    <workbookView xWindow="10515" yWindow="105" windowWidth="16110" windowHeight="14655" xr2:uid="{61E8EE44-AB5E-45B0-A628-B0D1DC94CDB2}"/>
   </bookViews>
   <sheets>
     <sheet name="notofes" sheetId="1" r:id="rId1"/>
@@ -7322,7 +7322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7354,12 +7354,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7741,10 +7735,10 @@
   <dimension ref="A1:O717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H700" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K724" sqref="K724"/>
+      <selection pane="bottomRight" activeCell="K717" sqref="K2:K717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7843,7 +7837,9 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -7925,7 +7921,9 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
@@ -7964,7 +7962,9 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -8001,7 +8001,9 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -8038,7 +8040,9 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -8077,7 +8081,9 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8120,7 +8126,9 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
@@ -8204,7 +8212,9 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -8282,7 +8292,9 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -8317,7 +8329,9 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -8354,7 +8368,9 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -8434,7 +8450,9 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -8471,7 +8489,9 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -8508,7 +8528,9 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -8545,7 +8567,9 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -8582,7 +8606,9 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
@@ -8621,7 +8647,9 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
       <c r="M22" s="1" t="s">
         <v>1904</v>
       </c>
@@ -8661,7 +8689,9 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -8698,7 +8728,9 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
       <c r="L24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8739,7 +8771,9 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
       <c r="L25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8778,7 +8812,9 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -8815,7 +8851,9 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -8852,7 +8890,9 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>22</v>
       </c>
@@ -8936,7 +8976,9 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -8973,7 +9015,9 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -9010,7 +9054,9 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -9047,7 +9093,9 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -9084,7 +9132,9 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -9121,7 +9171,9 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -9158,7 +9210,9 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -9195,7 +9249,9 @@
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -9232,7 +9288,9 @@
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
       <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
@@ -9273,7 +9331,9 @@
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
       <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
@@ -9314,7 +9374,9 @@
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
       <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
@@ -9355,7 +9417,9 @@
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
@@ -9394,7 +9458,9 @@
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
       <c r="L42" s="1" t="s">
         <v>22</v>
       </c>
@@ -9433,7 +9499,9 @@
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
       <c r="L43" s="1" t="s">
         <v>22</v>
       </c>
@@ -9517,7 +9585,9 @@
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -9552,6 +9622,9 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
         <v>1841</v>
@@ -9637,7 +9710,9 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -9721,7 +9796,9 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -9756,7 +9833,9 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -9793,7 +9872,9 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -9830,7 +9911,9 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -9867,7 +9950,9 @@
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -9902,7 +9987,9 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -9937,7 +10024,9 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -9972,7 +10061,9 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
       <c r="L57" s="1" t="s">
         <v>47</v>
       </c>
@@ -10052,7 +10143,9 @@
       <c r="J59" s="2">
         <v>0</v>
       </c>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -10087,7 +10180,9 @@
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -10169,7 +10264,9 @@
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
       <c r="L62" s="1" t="s">
         <v>22</v>
       </c>
@@ -10208,7 +10305,9 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
       <c r="L63" s="1" t="s">
         <v>22</v>
       </c>
@@ -10246,7 +10345,7 @@
       <c r="I64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2">
@@ -10291,7 +10390,7 @@
       <c r="I65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2">
@@ -10335,7 +10434,9 @@
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -10417,7 +10518,9 @@
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
       <c r="L68" s="1" t="s">
         <v>22</v>
       </c>
@@ -10500,7 +10603,9 @@
       <c r="J70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
       <c r="L70" s="1" t="s">
         <v>22</v>
       </c>
@@ -10539,7 +10644,9 @@
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
       <c r="L71" s="1" t="s">
         <v>22</v>
       </c>
@@ -10580,7 +10687,9 @@
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
       <c r="L72" s="1" t="s">
         <v>22</v>
       </c>
@@ -10662,7 +10771,9 @@
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="2"/>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
       <c r="L74" s="1" t="s">
         <v>22</v>
       </c>
@@ -10703,7 +10814,9 @@
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="2"/>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
       <c r="L75" s="1" t="s">
         <v>22</v>
       </c>
@@ -10742,7 +10855,9 @@
       <c r="J76" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="2"/>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
       <c r="L76" s="1" t="s">
         <v>22</v>
       </c>
@@ -10781,7 +10896,9 @@
       <c r="J77" s="2">
         <v>0</v>
       </c>
-      <c r="K77" s="2"/>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
       <c r="L77" s="1" t="s">
         <v>22</v>
       </c>
@@ -10820,7 +10937,9 @@
       <c r="J78" s="2">
         <v>0</v>
       </c>
-      <c r="K78" s="2"/>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
       <c r="L78" s="1" t="s">
         <v>22</v>
       </c>
@@ -10861,7 +10980,9 @@
       <c r="J79" s="2">
         <v>0</v>
       </c>
-      <c r="K79" s="2"/>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
       <c r="L79" s="1" t="s">
         <v>22</v>
       </c>
@@ -10898,7 +11019,9 @@
       <c r="J80" s="2">
         <v>0</v>
       </c>
-      <c r="K80" s="2"/>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -10935,7 +11058,9 @@
       <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K81" s="2"/>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -10972,7 +11097,9 @@
       <c r="J82" s="2">
         <v>0</v>
       </c>
-      <c r="K82" s="2"/>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -11009,7 +11136,9 @@
       <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -11361,7 +11490,9 @@
       <c r="J91" s="2">
         <v>0</v>
       </c>
-      <c r="K91" s="2"/>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
       <c r="L91" s="1" t="s">
         <v>19</v>
       </c>
@@ -11404,7 +11535,9 @@
       <c r="J92" s="2">
         <v>0</v>
       </c>
-      <c r="K92" s="2"/>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
       <c r="L92" s="1" t="s">
         <v>19</v>
       </c>
@@ -11447,7 +11580,9 @@
       <c r="J93" s="2">
         <v>0</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1" t="s">
@@ -11488,7 +11623,9 @@
       <c r="J94" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="2"/>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
       <c r="L94" s="1" t="s">
         <v>19</v>
       </c>
@@ -11533,7 +11670,9 @@
       <c r="J95" s="2">
         <v>0</v>
       </c>
-      <c r="K95" s="2"/>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
       <c r="L95" s="1" t="s">
         <v>19</v>
       </c>
@@ -11576,7 +11715,9 @@
       <c r="J96" s="2">
         <v>0</v>
       </c>
-      <c r="K96" s="2"/>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
       <c r="L96" s="1" t="s">
         <v>19</v>
       </c>
@@ -11619,7 +11760,9 @@
       <c r="J97" s="2">
         <v>0</v>
       </c>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1" t="s">
@@ -11658,7 +11801,9 @@
       <c r="J98" s="2">
         <v>0</v>
       </c>
-      <c r="K98" s="2"/>
+      <c r="K98" s="2">
+        <v>0</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -11695,7 +11840,9 @@
       <c r="J99" s="2">
         <v>0</v>
       </c>
-      <c r="K99" s="2"/>
+      <c r="K99" s="2">
+        <v>0</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -11732,7 +11879,9 @@
       <c r="J100" s="2">
         <v>0</v>
       </c>
-      <c r="K100" s="2"/>
+      <c r="K100" s="2">
+        <v>0</v>
+      </c>
       <c r="L100" s="1" t="s">
         <v>47</v>
       </c>
@@ -11818,7 +11967,9 @@
       <c r="J102" s="2">
         <v>0</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -11855,7 +12006,9 @@
       <c r="J103" s="2">
         <v>0</v>
       </c>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2">
+        <v>0</v>
+      </c>
       <c r="L103" s="1" t="s">
         <v>1861</v>
       </c>
@@ -11896,7 +12049,9 @@
       <c r="J104" s="2">
         <v>0</v>
       </c>
-      <c r="K104" s="2"/>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
       <c r="L104" s="1" t="s">
         <v>47</v>
       </c>
@@ -11935,7 +12090,9 @@
       <c r="J105" s="2">
         <v>0</v>
       </c>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
       <c r="L105" s="1" t="s">
         <v>47</v>
       </c>
@@ -11976,7 +12133,9 @@
       <c r="J106" s="2">
         <v>0</v>
       </c>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2">
+        <v>0</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -12013,7 +12172,9 @@
       <c r="J107" s="2">
         <v>0</v>
       </c>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2">
+        <v>0</v>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -12050,7 +12211,9 @@
       <c r="J108" s="2">
         <v>0</v>
       </c>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2">
+        <v>0</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -12087,7 +12250,9 @@
       <c r="J109" s="2">
         <v>1</v>
       </c>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2">
+        <v>0</v>
+      </c>
       <c r="L109" s="1" t="s">
         <v>47</v>
       </c>
@@ -12128,7 +12293,9 @@
       <c r="J110" s="2">
         <v>1</v>
       </c>
-      <c r="K110" s="2"/>
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
       <c r="L110" s="1" t="s">
         <v>47</v>
       </c>
@@ -12169,7 +12336,9 @@
       <c r="J111" s="2">
         <v>0</v>
       </c>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2">
+        <v>0</v>
+      </c>
       <c r="L111" s="1" t="s">
         <v>22</v>
       </c>
@@ -12208,7 +12377,9 @@
       <c r="J112" s="2">
         <v>0</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2">
+        <v>0</v>
+      </c>
       <c r="L112" s="1" t="s">
         <v>22</v>
       </c>
@@ -12247,7 +12418,9 @@
       <c r="J113" s="2">
         <v>0</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2">
+        <v>0</v>
+      </c>
       <c r="L113" s="1" t="s">
         <v>22</v>
       </c>
@@ -12286,7 +12459,9 @@
       <c r="J114" s="2">
         <v>0</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
       <c r="L114" s="1" t="s">
         <v>22</v>
       </c>
@@ -12325,7 +12500,9 @@
       <c r="J115" s="2">
         <v>0</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2">
+        <v>0</v>
+      </c>
       <c r="L115" s="1" t="s">
         <v>22</v>
       </c>
@@ -12364,7 +12541,9 @@
       <c r="J116" s="2">
         <v>0</v>
       </c>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2">
+        <v>0</v>
+      </c>
       <c r="L116" s="1" t="s">
         <v>22</v>
       </c>
@@ -12403,7 +12582,9 @@
       <c r="J117" s="2">
         <v>0</v>
       </c>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2">
+        <v>0</v>
+      </c>
       <c r="L117" s="1" t="s">
         <v>22</v>
       </c>
@@ -12442,7 +12623,9 @@
       <c r="J118" s="2">
         <v>0</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2">
+        <v>0</v>
+      </c>
       <c r="L118" s="1" t="s">
         <v>22</v>
       </c>
@@ -12481,7 +12664,9 @@
       <c r="J119" s="2">
         <v>0</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2">
+        <v>0</v>
+      </c>
       <c r="L119" s="1" t="s">
         <v>22</v>
       </c>
@@ -12518,7 +12703,9 @@
       <c r="J120" s="2">
         <v>0</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2">
+        <v>0</v>
+      </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -12555,7 +12742,9 @@
       <c r="J121" s="2">
         <v>0</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2">
+        <v>0</v>
+      </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -12588,7 +12777,7 @@
       <c r="H122" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J122" s="2">
@@ -12680,7 +12869,9 @@
       <c r="J124" s="2">
         <v>0</v>
       </c>
-      <c r="K124" s="2"/>
+      <c r="K124" s="2">
+        <v>0</v>
+      </c>
       <c r="L124" s="1" t="s">
         <v>22</v>
       </c>
@@ -12719,7 +12910,9 @@
       <c r="J125" s="2">
         <v>0</v>
       </c>
-      <c r="K125" s="2"/>
+      <c r="K125" s="2">
+        <v>0</v>
+      </c>
       <c r="L125" s="1" t="s">
         <v>47</v>
       </c>
@@ -12803,7 +12996,9 @@
       <c r="J127" s="2">
         <v>0</v>
       </c>
-      <c r="K127" s="2"/>
+      <c r="K127" s="2">
+        <v>0</v>
+      </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -12840,7 +13035,9 @@
       <c r="J128" s="2">
         <v>1</v>
       </c>
-      <c r="K128" s="2"/>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1" t="s">
@@ -12879,7 +13076,9 @@
       <c r="J129" s="2">
         <v>0</v>
       </c>
-      <c r="K129" s="2"/>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -12914,7 +13113,9 @@
       <c r="J130" s="2">
         <v>0</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -12951,7 +13152,9 @@
       <c r="J131" s="2">
         <v>0</v>
       </c>
-      <c r="K131" s="2"/>
+      <c r="K131" s="2">
+        <v>0</v>
+      </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -12988,7 +13191,9 @@
       <c r="J132" s="2">
         <v>0</v>
       </c>
-      <c r="K132" s="2"/>
+      <c r="K132" s="2">
+        <v>0</v>
+      </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -13025,7 +13230,9 @@
       <c r="J133" s="2">
         <v>0</v>
       </c>
-      <c r="K133" s="2"/>
+      <c r="K133" s="2">
+        <v>0</v>
+      </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -13062,7 +13269,9 @@
       <c r="J134" s="2">
         <v>0</v>
       </c>
-      <c r="K134" s="2"/>
+      <c r="K134" s="2">
+        <v>0</v>
+      </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -13187,7 +13396,9 @@
       <c r="J137" s="2">
         <v>0</v>
       </c>
-      <c r="K137" s="2"/>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -13224,7 +13435,9 @@
       <c r="J138" s="2">
         <v>0</v>
       </c>
-      <c r="K138" s="2"/>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -13261,7 +13474,9 @@
       <c r="J139" s="2">
         <v>0</v>
       </c>
-      <c r="K139" s="2"/>
+      <c r="K139" s="2">
+        <v>0</v>
+      </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -13298,7 +13513,9 @@
       <c r="J140" s="2">
         <v>0</v>
       </c>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2">
+        <v>0</v>
+      </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -13333,7 +13550,9 @@
       <c r="J141" s="2">
         <v>0</v>
       </c>
-      <c r="K141" s="2"/>
+      <c r="K141" s="2">
+        <v>0</v>
+      </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -13370,7 +13589,9 @@
       <c r="J142" s="2">
         <v>0</v>
       </c>
-      <c r="K142" s="2"/>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -13407,7 +13628,9 @@
       <c r="J143" s="2">
         <v>0</v>
       </c>
-      <c r="K143" s="2"/>
+      <c r="K143" s="2">
+        <v>0</v>
+      </c>
       <c r="L143" s="1" t="s">
         <v>19</v>
       </c>
@@ -13446,7 +13669,9 @@
       <c r="J144" s="2">
         <v>0</v>
       </c>
-      <c r="K144" s="2"/>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -13483,7 +13708,9 @@
       <c r="J145" s="2">
         <v>0</v>
       </c>
-      <c r="K145" s="2"/>
+      <c r="K145" s="2">
+        <v>0</v>
+      </c>
       <c r="L145" s="1" t="s">
         <v>22</v>
       </c>
@@ -13524,7 +13751,9 @@
       <c r="J146" s="2">
         <v>0</v>
       </c>
-      <c r="K146" s="2"/>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
       <c r="L146" s="1" t="s">
         <v>22</v>
       </c>
@@ -13563,7 +13792,9 @@
       <c r="J147" s="2">
         <v>0</v>
       </c>
-      <c r="K147" s="2"/>
+      <c r="K147" s="2">
+        <v>0</v>
+      </c>
       <c r="L147" s="1" t="s">
         <v>22</v>
       </c>
@@ -13602,7 +13833,9 @@
       <c r="J148" s="2">
         <v>0</v>
       </c>
-      <c r="K148" s="2"/>
+      <c r="K148" s="2">
+        <v>0</v>
+      </c>
       <c r="L148" s="1" t="s">
         <v>22</v>
       </c>
@@ -13635,7 +13868,7 @@
       <c r="H149" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I149" s="11" t="s">
+      <c r="I149" s="1" t="s">
         <v>387</v>
       </c>
       <c r="J149" s="2">
@@ -13676,7 +13909,7 @@
       <c r="H150" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I150" s="11" t="s">
+      <c r="I150" s="1" t="s">
         <v>390</v>
       </c>
       <c r="J150" s="2">
@@ -13721,7 +13954,9 @@
       <c r="J151" s="2">
         <v>0</v>
       </c>
-      <c r="K151" s="2"/>
+      <c r="K151" s="2">
+        <v>0</v>
+      </c>
       <c r="L151" s="1" t="s">
         <v>22</v>
       </c>
@@ -13760,7 +13995,9 @@
       <c r="J152" s="2">
         <v>0</v>
       </c>
-      <c r="K152" s="2"/>
+      <c r="K152" s="2">
+        <v>0</v>
+      </c>
       <c r="L152" s="1" t="s">
         <v>22</v>
       </c>
@@ -13797,7 +14034,9 @@
       <c r="J153" s="2">
         <v>0</v>
       </c>
-      <c r="K153" s="2"/>
+      <c r="K153" s="2">
+        <v>0</v>
+      </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -13876,7 +14115,9 @@
       <c r="J155" s="2">
         <v>0</v>
       </c>
-      <c r="K155" s="2"/>
+      <c r="K155" s="2">
+        <v>0</v>
+      </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -13913,7 +14154,9 @@
       <c r="J156" s="2">
         <v>0</v>
       </c>
-      <c r="K156" s="2"/>
+      <c r="K156" s="2">
+        <v>0</v>
+      </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -13950,7 +14193,9 @@
       <c r="J157" s="2">
         <v>0</v>
       </c>
-      <c r="K157" s="2"/>
+      <c r="K157" s="2">
+        <v>0</v>
+      </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -13987,7 +14232,9 @@
       <c r="J158" s="2">
         <v>0</v>
       </c>
-      <c r="K158" s="2"/>
+      <c r="K158" s="2">
+        <v>0</v>
+      </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -14024,7 +14271,9 @@
       <c r="J159" s="2">
         <v>0</v>
       </c>
-      <c r="K159" s="2"/>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -14061,7 +14310,9 @@
       <c r="J160" s="2">
         <v>0</v>
       </c>
-      <c r="K160" s="2"/>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -14098,7 +14349,9 @@
       <c r="J161" s="2">
         <v>0</v>
       </c>
-      <c r="K161" s="2"/>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -14135,7 +14388,9 @@
       <c r="J162" s="2">
         <v>0</v>
       </c>
-      <c r="K162" s="2"/>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -14166,7 +14421,7 @@
       <c r="H163" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I163" s="11" t="s">
+      <c r="I163" s="1" t="s">
         <v>2019</v>
       </c>
       <c r="J163" s="2">
@@ -14217,7 +14472,9 @@
       <c r="J164" s="2">
         <v>0</v>
       </c>
-      <c r="K164" s="2"/>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
       <c r="L164" s="1" t="s">
         <v>1839</v>
       </c>
@@ -14258,7 +14515,9 @@
       <c r="J165" s="2">
         <v>0</v>
       </c>
-      <c r="K165" s="2"/>
+      <c r="K165" s="2">
+        <v>0</v>
+      </c>
       <c r="L165" s="1" t="s">
         <v>22</v>
       </c>
@@ -14297,7 +14556,9 @@
       <c r="J166" s="2">
         <v>0</v>
       </c>
-      <c r="K166" s="2"/>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
       <c r="L166" s="1" t="s">
         <v>22</v>
       </c>
@@ -14336,7 +14597,9 @@
       <c r="J167" s="2">
         <v>0</v>
       </c>
-      <c r="K167" s="2"/>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
       <c r="L167" s="1" t="s">
         <v>22</v>
       </c>
@@ -14377,7 +14640,9 @@
       <c r="J168" s="2">
         <v>0</v>
       </c>
-      <c r="K168" s="2"/>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
       <c r="L168" s="1" t="s">
         <v>22</v>
       </c>
@@ -14414,7 +14679,9 @@
       <c r="J169" s="2">
         <v>0</v>
       </c>
-      <c r="K169" s="2"/>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
       <c r="L169" s="1" t="s">
         <v>22</v>
       </c>
@@ -14453,7 +14720,9 @@
       <c r="J170" s="2">
         <v>0</v>
       </c>
-      <c r="K170" s="2"/>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
       <c r="L170" s="1" t="s">
         <v>47</v>
       </c>
@@ -14756,7 +15025,9 @@
       <c r="J177" s="2">
         <v>0</v>
       </c>
-      <c r="K177" s="2"/>
+      <c r="K177" s="2">
+        <v>0</v>
+      </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -14793,7 +15064,9 @@
       <c r="J178" s="2">
         <v>0</v>
       </c>
-      <c r="K178" s="2"/>
+      <c r="K178" s="2">
+        <v>0</v>
+      </c>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -15043,7 +15316,9 @@
       <c r="J184" s="2">
         <v>0</v>
       </c>
-      <c r="K184" s="2"/>
+      <c r="K184" s="2">
+        <v>0</v>
+      </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -15080,7 +15355,9 @@
       <c r="J185" s="2">
         <v>0</v>
       </c>
-      <c r="K185" s="2"/>
+      <c r="K185" s="2">
+        <v>0</v>
+      </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -15117,7 +15394,9 @@
       <c r="J186" s="2">
         <v>0</v>
       </c>
-      <c r="K186" s="2"/>
+      <c r="K186" s="2">
+        <v>0</v>
+      </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -15154,7 +15433,9 @@
       <c r="J187" s="2">
         <v>0</v>
       </c>
-      <c r="K187" s="2"/>
+      <c r="K187" s="2">
+        <v>0</v>
+      </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -15191,7 +15472,9 @@
       <c r="J188" s="2">
         <v>0</v>
       </c>
-      <c r="K188" s="2"/>
+      <c r="K188" s="2">
+        <v>0</v>
+      </c>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -15228,7 +15511,9 @@
       <c r="J189" s="2">
         <v>0</v>
       </c>
-      <c r="K189" s="2"/>
+      <c r="K189" s="2">
+        <v>0</v>
+      </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -15265,7 +15550,9 @@
       <c r="J190" s="2">
         <v>0</v>
       </c>
-      <c r="K190" s="2"/>
+      <c r="K190" s="2">
+        <v>0</v>
+      </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -15302,7 +15589,9 @@
       <c r="J191" s="2">
         <v>0</v>
       </c>
-      <c r="K191" s="2"/>
+      <c r="K191" s="2">
+        <v>0</v>
+      </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -15339,7 +15628,9 @@
       <c r="J192" s="2">
         <v>0</v>
       </c>
-      <c r="K192" s="2"/>
+      <c r="K192" s="2">
+        <v>0</v>
+      </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -15417,7 +15708,9 @@
       <c r="J194" s="2">
         <v>0</v>
       </c>
-      <c r="K194" s="2"/>
+      <c r="K194" s="2">
+        <v>0</v>
+      </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -15630,7 +15923,9 @@
       <c r="J199" s="2">
         <v>0</v>
       </c>
-      <c r="K199" s="2"/>
+      <c r="K199" s="2">
+        <v>0</v>
+      </c>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -15798,7 +16093,9 @@
       <c r="J203" s="2">
         <v>0</v>
       </c>
-      <c r="K203" s="2"/>
+      <c r="K203" s="2">
+        <v>0</v>
+      </c>
       <c r="L203" s="1" t="s">
         <v>19</v>
       </c>
@@ -16009,7 +16306,9 @@
       <c r="J208" s="2">
         <v>0</v>
       </c>
-      <c r="K208" s="2"/>
+      <c r="K208" s="2">
+        <v>0</v>
+      </c>
       <c r="L208" s="1" t="s">
         <v>22</v>
       </c>
@@ -16183,7 +16482,9 @@
       <c r="J212" s="2">
         <v>0</v>
       </c>
-      <c r="K212" s="2"/>
+      <c r="K212" s="2">
+        <v>0</v>
+      </c>
       <c r="L212" s="1" t="s">
         <v>1782</v>
       </c>
@@ -16224,7 +16525,9 @@
       <c r="J213" s="2">
         <v>0</v>
       </c>
-      <c r="K213" s="2"/>
+      <c r="K213" s="2">
+        <v>0</v>
+      </c>
       <c r="L213" s="1" t="s">
         <v>19</v>
       </c>
@@ -16263,7 +16566,9 @@
       <c r="J214" s="2">
         <v>0</v>
       </c>
-      <c r="K214" s="2"/>
+      <c r="K214" s="2">
+        <v>0</v>
+      </c>
       <c r="L214" s="1" t="s">
         <v>19</v>
       </c>
@@ -16525,7 +16830,9 @@
       <c r="J220" s="2">
         <v>0</v>
       </c>
-      <c r="K220" s="2"/>
+      <c r="K220" s="2">
+        <v>0</v>
+      </c>
       <c r="L220" s="1" t="s">
         <v>1782</v>
       </c>
@@ -16566,7 +16873,9 @@
       <c r="J221" s="2">
         <v>0</v>
       </c>
-      <c r="K221" s="2"/>
+      <c r="K221" s="2">
+        <v>0</v>
+      </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -16603,7 +16912,9 @@
       <c r="J222" s="2">
         <v>0</v>
       </c>
-      <c r="K222" s="2"/>
+      <c r="K222" s="2">
+        <v>0</v>
+      </c>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -16638,7 +16949,9 @@
       <c r="J223" s="2">
         <v>0</v>
       </c>
-      <c r="K223" s="2"/>
+      <c r="K223" s="2">
+        <v>0</v>
+      </c>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -16675,7 +16988,9 @@
       <c r="J224" s="2">
         <v>0</v>
       </c>
-      <c r="K224" s="2"/>
+      <c r="K224" s="2">
+        <v>0</v>
+      </c>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -16712,7 +17027,9 @@
       <c r="J225" s="2">
         <v>0</v>
       </c>
-      <c r="K225" s="2"/>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -16749,7 +17066,9 @@
       <c r="J226" s="2">
         <v>0</v>
       </c>
-      <c r="K226" s="2"/>
+      <c r="K226" s="2">
+        <v>0</v>
+      </c>
       <c r="L226" s="1" t="s">
         <v>22</v>
       </c>
@@ -16786,7 +17105,9 @@
       <c r="J227" s="2">
         <v>0</v>
       </c>
-      <c r="K227" s="2"/>
+      <c r="K227" s="2">
+        <v>0</v>
+      </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -16820,10 +17141,12 @@
         <v>559</v>
       </c>
       <c r="I228" s="1"/>
-      <c r="J228" s="12">
-        <v>0</v>
-      </c>
-      <c r="K228" s="2"/>
+      <c r="J228" s="2">
+        <v>0</v>
+      </c>
+      <c r="K228" s="2">
+        <v>0</v>
+      </c>
       <c r="L228" s="1" t="s">
         <v>19</v>
       </c>
@@ -16859,10 +17182,12 @@
       <c r="I229" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="J229" s="12">
-        <v>0</v>
-      </c>
-      <c r="K229" s="2"/>
+      <c r="J229" s="2">
+        <v>0</v>
+      </c>
+      <c r="K229" s="2">
+        <v>0</v>
+      </c>
       <c r="L229" s="1" t="s">
         <v>19</v>
       </c>
@@ -16898,7 +17223,7 @@
       <c r="I230" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="J230" s="12">
+      <c r="J230" s="2">
         <v>1</v>
       </c>
       <c r="K230" s="2">
@@ -16941,7 +17266,7 @@
       <c r="I231" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J231" s="12">
+      <c r="J231" s="2">
         <v>1</v>
       </c>
       <c r="K231" s="2">
@@ -16987,7 +17312,9 @@
       <c r="J232" s="2">
         <v>0</v>
       </c>
-      <c r="K232" s="2"/>
+      <c r="K232" s="2">
+        <v>0</v>
+      </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -17024,7 +17351,9 @@
       <c r="J233" s="2">
         <v>0</v>
       </c>
-      <c r="K233" s="2"/>
+      <c r="K233" s="2">
+        <v>0</v>
+      </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -17104,7 +17433,9 @@
       <c r="J235" s="2">
         <v>0</v>
       </c>
-      <c r="K235" s="2"/>
+      <c r="K235" s="2">
+        <v>0</v>
+      </c>
       <c r="L235" s="1" t="s">
         <v>1731</v>
       </c>
@@ -17145,7 +17476,9 @@
       <c r="J236" s="2">
         <v>0</v>
       </c>
-      <c r="K236" s="2"/>
+      <c r="K236" s="2">
+        <v>0</v>
+      </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -17182,7 +17515,9 @@
       <c r="J237" s="2">
         <v>0</v>
       </c>
-      <c r="K237" s="2"/>
+      <c r="K237" s="2">
+        <v>0</v>
+      </c>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -17219,7 +17554,9 @@
       <c r="J238" s="2">
         <v>0</v>
       </c>
-      <c r="K238" s="2"/>
+      <c r="K238" s="2">
+        <v>0</v>
+      </c>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -17299,7 +17636,9 @@
       <c r="J240" s="2">
         <v>0</v>
       </c>
-      <c r="K240" s="2"/>
+      <c r="K240" s="2">
+        <v>0</v>
+      </c>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -17377,7 +17716,9 @@
       <c r="J242" s="2">
         <v>0</v>
       </c>
-      <c r="K242" s="2"/>
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
       <c r="L242" s="1" t="s">
         <v>19</v>
       </c>
@@ -17414,7 +17755,9 @@
       <c r="J243" s="2">
         <v>0</v>
       </c>
-      <c r="K243" s="2"/>
+      <c r="K243" s="2">
+        <v>0</v>
+      </c>
       <c r="L243" s="1" t="s">
         <v>19</v>
       </c>
@@ -17447,7 +17790,7 @@
       <c r="H244" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="I244" s="11" t="s">
+      <c r="I244" s="1" t="s">
         <v>617</v>
       </c>
       <c r="J244" s="2">
@@ -17584,7 +17927,9 @@
       <c r="J247" s="2">
         <v>0</v>
       </c>
-      <c r="K247" s="2"/>
+      <c r="K247" s="2">
+        <v>0</v>
+      </c>
       <c r="L247" s="1"/>
       <c r="M247" s="1" t="s">
         <v>525</v>
@@ -17623,7 +17968,9 @@
       <c r="J248" s="2">
         <v>0</v>
       </c>
-      <c r="K248" s="2"/>
+      <c r="K248" s="2">
+        <v>0</v>
+      </c>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -17660,7 +18007,9 @@
       <c r="J249" s="2">
         <v>0</v>
       </c>
-      <c r="K249" s="2"/>
+      <c r="K249" s="2">
+        <v>0</v>
+      </c>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -17697,7 +18046,9 @@
       <c r="J250" s="2">
         <v>0</v>
       </c>
-      <c r="K250" s="2"/>
+      <c r="K250" s="2">
+        <v>0</v>
+      </c>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -17736,7 +18087,9 @@
       <c r="J251" s="2">
         <v>0</v>
       </c>
-      <c r="K251" s="2"/>
+      <c r="K251" s="2">
+        <v>0</v>
+      </c>
       <c r="L251" s="1" t="s">
         <v>22</v>
       </c>
@@ -17775,7 +18128,9 @@
       <c r="J252" s="2">
         <v>0</v>
       </c>
-      <c r="K252" s="2"/>
+      <c r="K252" s="2">
+        <v>0</v>
+      </c>
       <c r="L252" s="1" t="s">
         <v>22</v>
       </c>
@@ -17812,7 +18167,9 @@
       <c r="J253" s="2">
         <v>0</v>
       </c>
-      <c r="K253" s="2"/>
+      <c r="K253" s="2">
+        <v>0</v>
+      </c>
       <c r="L253" s="1" t="s">
         <v>22</v>
       </c>
@@ -17851,7 +18208,9 @@
       <c r="J254" s="2">
         <v>0</v>
       </c>
-      <c r="K254" s="2"/>
+      <c r="K254" s="2">
+        <v>0</v>
+      </c>
       <c r="L254" s="1" t="s">
         <v>22</v>
       </c>
@@ -17892,7 +18251,9 @@
       <c r="J255" s="2">
         <v>0</v>
       </c>
-      <c r="K255" s="2"/>
+      <c r="K255" s="2">
+        <v>0</v>
+      </c>
       <c r="L255" s="1" t="s">
         <v>22</v>
       </c>
@@ -17931,7 +18292,9 @@
       <c r="J256" s="2">
         <v>0</v>
       </c>
-      <c r="K256" s="2"/>
+      <c r="K256" s="2">
+        <v>0</v>
+      </c>
       <c r="L256" s="1" t="s">
         <v>22</v>
       </c>
@@ -17970,7 +18333,9 @@
       <c r="J257" s="2">
         <v>0</v>
       </c>
-      <c r="K257" s="2"/>
+      <c r="K257" s="2">
+        <v>0</v>
+      </c>
       <c r="L257" s="1" t="s">
         <v>22</v>
       </c>
@@ -18009,7 +18374,9 @@
       <c r="J258" s="2">
         <v>0</v>
       </c>
-      <c r="K258" s="2"/>
+      <c r="K258" s="2">
+        <v>0</v>
+      </c>
       <c r="L258" s="1" t="s">
         <v>22</v>
       </c>
@@ -18050,7 +18417,9 @@
       <c r="J259" s="2">
         <v>0</v>
       </c>
-      <c r="K259" s="2"/>
+      <c r="K259" s="2">
+        <v>0</v>
+      </c>
       <c r="L259" s="1" t="s">
         <v>22</v>
       </c>
@@ -18089,7 +18458,9 @@
       <c r="J260" s="2">
         <v>0</v>
       </c>
-      <c r="K260" s="2"/>
+      <c r="K260" s="2">
+        <v>0</v>
+      </c>
       <c r="L260" s="1" t="s">
         <v>22</v>
       </c>
@@ -18126,7 +18497,9 @@
       <c r="J261" s="2">
         <v>0</v>
       </c>
-      <c r="K261" s="2"/>
+      <c r="K261" s="2">
+        <v>0</v>
+      </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -18163,7 +18536,9 @@
       <c r="J262" s="2">
         <v>0</v>
       </c>
-      <c r="K262" s="2"/>
+      <c r="K262" s="2">
+        <v>0</v>
+      </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -18200,7 +18575,9 @@
       <c r="J263" s="2">
         <v>0</v>
       </c>
-      <c r="K263" s="2"/>
+      <c r="K263" s="2">
+        <v>0</v>
+      </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -18237,7 +18614,9 @@
       <c r="J264" s="2">
         <v>0</v>
       </c>
-      <c r="K264" s="2"/>
+      <c r="K264" s="2">
+        <v>0</v>
+      </c>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -18274,7 +18653,9 @@
       <c r="J265" s="2">
         <v>0</v>
       </c>
-      <c r="K265" s="2"/>
+      <c r="K265" s="2">
+        <v>0</v>
+      </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -18356,7 +18737,9 @@
       <c r="J267" s="2">
         <v>0</v>
       </c>
-      <c r="K267" s="2"/>
+      <c r="K267" s="2">
+        <v>0</v>
+      </c>
       <c r="L267" s="1" t="s">
         <v>22</v>
       </c>
@@ -18438,7 +18821,9 @@
       <c r="J269" s="2">
         <v>0</v>
       </c>
-      <c r="K269" s="2"/>
+      <c r="K269" s="2">
+        <v>0</v>
+      </c>
       <c r="L269" s="1" t="s">
         <v>22</v>
       </c>
@@ -18477,7 +18862,9 @@
       <c r="J270" s="2">
         <v>0</v>
       </c>
-      <c r="K270" s="2"/>
+      <c r="K270" s="2">
+        <v>0</v>
+      </c>
       <c r="L270" s="1" t="s">
         <v>22</v>
       </c>
@@ -18557,7 +18944,9 @@
       <c r="J272" s="2">
         <v>0</v>
       </c>
-      <c r="K272" s="2"/>
+      <c r="K272" s="2">
+        <v>0</v>
+      </c>
       <c r="L272" s="1" t="s">
         <v>22</v>
       </c>
@@ -18596,7 +18985,9 @@
       <c r="J273" s="2">
         <v>0</v>
       </c>
-      <c r="K273" s="2"/>
+      <c r="K273" s="2">
+        <v>0</v>
+      </c>
       <c r="L273" s="1" t="s">
         <v>22</v>
       </c>
@@ -18637,7 +19028,9 @@
       <c r="J274" s="2">
         <v>0</v>
       </c>
-      <c r="K274" s="2"/>
+      <c r="K274" s="2">
+        <v>0</v>
+      </c>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -18674,7 +19067,9 @@
       <c r="J275" s="2">
         <v>0</v>
       </c>
-      <c r="K275" s="2"/>
+      <c r="K275" s="2">
+        <v>0</v>
+      </c>
       <c r="L275" s="1" t="s">
         <v>22</v>
       </c>
@@ -18713,7 +19108,9 @@
       <c r="J276" s="2">
         <v>0</v>
       </c>
-      <c r="K276" s="2"/>
+      <c r="K276" s="2">
+        <v>0</v>
+      </c>
       <c r="L276" s="1" t="s">
         <v>22</v>
       </c>
@@ -18881,7 +19278,9 @@
       <c r="J280" s="2">
         <v>0</v>
       </c>
-      <c r="K280" s="2"/>
+      <c r="K280" s="2">
+        <v>0</v>
+      </c>
       <c r="L280" s="1" t="s">
         <v>22</v>
       </c>
@@ -18920,7 +19319,9 @@
       <c r="J281" s="2">
         <v>0</v>
       </c>
-      <c r="K281" s="2"/>
+      <c r="K281" s="2">
+        <v>0</v>
+      </c>
       <c r="L281" s="1" t="s">
         <v>22</v>
       </c>
@@ -19002,7 +19403,9 @@
       <c r="J283" s="2">
         <v>0</v>
       </c>
-      <c r="K283" s="2"/>
+      <c r="K283" s="2">
+        <v>0</v>
+      </c>
       <c r="L283" s="1" t="s">
         <v>22</v>
       </c>
@@ -19043,7 +19446,9 @@
       <c r="J284" s="2">
         <v>0</v>
       </c>
-      <c r="K284" s="2"/>
+      <c r="K284" s="2">
+        <v>0</v>
+      </c>
       <c r="L284" s="1" t="s">
         <v>22</v>
       </c>
@@ -19076,7 +19481,7 @@
       <c r="H285" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="I285" s="11" t="s">
+      <c r="I285" s="1" t="s">
         <v>723</v>
       </c>
       <c r="J285" s="2">
@@ -19127,7 +19532,9 @@
       <c r="J286" s="2">
         <v>0</v>
       </c>
-      <c r="K286" s="2"/>
+      <c r="K286" s="2">
+        <v>0</v>
+      </c>
       <c r="L286" s="1" t="s">
         <v>47</v>
       </c>
@@ -19302,7 +19709,9 @@
       <c r="J290" s="2">
         <v>0</v>
       </c>
-      <c r="K290" s="2"/>
+      <c r="K290" s="2">
+        <v>0</v>
+      </c>
       <c r="L290" s="1" t="s">
         <v>22</v>
       </c>
@@ -19341,7 +19750,9 @@
       <c r="J291" s="2">
         <v>0</v>
       </c>
-      <c r="K291" s="2"/>
+      <c r="K291" s="2">
+        <v>0</v>
+      </c>
       <c r="L291" s="1" t="s">
         <v>22</v>
       </c>
@@ -19382,7 +19793,9 @@
       <c r="J292" s="2">
         <v>0</v>
       </c>
-      <c r="K292" s="2"/>
+      <c r="K292" s="2">
+        <v>0</v>
+      </c>
       <c r="L292" s="1" t="s">
         <v>22</v>
       </c>
@@ -19421,7 +19834,9 @@
       <c r="J293" s="2">
         <v>0</v>
       </c>
-      <c r="K293" s="2"/>
+      <c r="K293" s="2">
+        <v>0</v>
+      </c>
       <c r="L293" s="1" t="s">
         <v>22</v>
       </c>
@@ -19460,7 +19875,9 @@
       <c r="J294" s="2">
         <v>0</v>
       </c>
-      <c r="K294" s="2"/>
+      <c r="K294" s="2">
+        <v>0</v>
+      </c>
       <c r="L294" s="1" t="s">
         <v>22</v>
       </c>
@@ -19499,7 +19916,9 @@
       <c r="J295" s="2">
         <v>0</v>
       </c>
-      <c r="K295" s="2"/>
+      <c r="K295" s="2">
+        <v>0</v>
+      </c>
       <c r="L295" s="1" t="s">
         <v>22</v>
       </c>
@@ -19538,7 +19957,9 @@
       <c r="J296" s="2">
         <v>0</v>
       </c>
-      <c r="K296" s="2"/>
+      <c r="K296" s="2">
+        <v>0</v>
+      </c>
       <c r="L296" s="1" t="s">
         <v>22</v>
       </c>
@@ -19575,7 +19996,9 @@
       <c r="J297" s="2">
         <v>0</v>
       </c>
-      <c r="K297" s="2"/>
+      <c r="K297" s="2">
+        <v>0</v>
+      </c>
       <c r="L297" s="1" t="s">
         <v>22</v>
       </c>
@@ -19612,7 +20035,9 @@
       <c r="J298" s="2">
         <v>0</v>
       </c>
-      <c r="K298" s="2"/>
+      <c r="K298" s="2">
+        <v>0</v>
+      </c>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -19649,7 +20074,9 @@
       <c r="J299" s="2">
         <v>0</v>
       </c>
-      <c r="K299" s="2"/>
+      <c r="K299" s="2">
+        <v>0</v>
+      </c>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
@@ -19688,7 +20115,9 @@
       <c r="J300" s="2">
         <v>0</v>
       </c>
-      <c r="K300" s="2"/>
+      <c r="K300" s="2">
+        <v>0</v>
+      </c>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -19725,7 +20154,9 @@
       <c r="J301" s="2">
         <v>0</v>
       </c>
-      <c r="K301" s="2"/>
+      <c r="K301" s="2">
+        <v>0</v>
+      </c>
       <c r="L301" s="1" t="s">
         <v>1731</v>
       </c>
@@ -19766,7 +20197,9 @@
       <c r="J302" s="2">
         <v>0</v>
       </c>
-      <c r="K302" s="2"/>
+      <c r="K302" s="2">
+        <v>0</v>
+      </c>
       <c r="L302" s="1" t="s">
         <v>22</v>
       </c>
@@ -19807,7 +20240,9 @@
       <c r="J303" s="2">
         <v>0</v>
       </c>
-      <c r="K303" s="2"/>
+      <c r="K303" s="2">
+        <v>0</v>
+      </c>
       <c r="L303" s="1" t="s">
         <v>47</v>
       </c>
@@ -19848,7 +20283,9 @@
       <c r="J304" s="2">
         <v>0</v>
       </c>
-      <c r="K304" s="2"/>
+      <c r="K304" s="2">
+        <v>0</v>
+      </c>
       <c r="L304" s="1" t="s">
         <v>19</v>
       </c>
@@ -19891,7 +20328,9 @@
       <c r="J305" s="2">
         <v>0</v>
       </c>
-      <c r="K305" s="2"/>
+      <c r="K305" s="2">
+        <v>0</v>
+      </c>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
@@ -19926,7 +20365,9 @@
       <c r="J306" s="2">
         <v>0</v>
       </c>
-      <c r="K306" s="2"/>
+      <c r="K306" s="2">
+        <v>0</v>
+      </c>
       <c r="L306" s="1"/>
       <c r="M306" s="1" t="s">
         <v>1924</v>
@@ -20012,7 +20453,9 @@
       <c r="J308" s="2">
         <v>0</v>
       </c>
-      <c r="K308" s="2"/>
+      <c r="K308" s="2">
+        <v>0</v>
+      </c>
       <c r="L308" s="1" t="s">
         <v>47</v>
       </c>
@@ -20143,7 +20586,9 @@
       <c r="J311" s="2">
         <v>0</v>
       </c>
-      <c r="K311" s="2"/>
+      <c r="K311" s="2">
+        <v>0</v>
+      </c>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
@@ -20180,7 +20625,9 @@
       <c r="J312" s="2">
         <v>0</v>
       </c>
-      <c r="K312" s="2"/>
+      <c r="K312" s="2">
+        <v>0</v>
+      </c>
       <c r="L312" s="1" t="s">
         <v>22</v>
       </c>
@@ -20221,7 +20668,9 @@
       <c r="J313" s="2">
         <v>0</v>
       </c>
-      <c r="K313" s="2"/>
+      <c r="K313" s="2">
+        <v>0</v>
+      </c>
       <c r="L313" s="1" t="s">
         <v>22</v>
       </c>
@@ -20307,7 +20756,9 @@
       <c r="J315" s="2">
         <v>0</v>
       </c>
-      <c r="K315" s="2"/>
+      <c r="K315" s="2">
+        <v>0</v>
+      </c>
       <c r="L315" s="1" t="s">
         <v>22</v>
       </c>
@@ -20346,7 +20797,9 @@
       <c r="J316" s="2">
         <v>0</v>
       </c>
-      <c r="K316" s="2"/>
+      <c r="K316" s="2">
+        <v>0</v>
+      </c>
       <c r="L316" s="1" t="s">
         <v>22</v>
       </c>
@@ -20379,7 +20832,7 @@
       <c r="H317" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="I317" s="11" t="s">
+      <c r="I317" s="1" t="s">
         <v>804</v>
       </c>
       <c r="J317" s="2">
@@ -20428,7 +20881,9 @@
       <c r="J318" s="2">
         <v>0</v>
       </c>
-      <c r="K318" s="2"/>
+      <c r="K318" s="2">
+        <v>0</v>
+      </c>
       <c r="L318" s="1" t="s">
         <v>22</v>
       </c>
@@ -20467,7 +20922,9 @@
       <c r="J319" s="2">
         <v>0</v>
       </c>
-      <c r="K319" s="2"/>
+      <c r="K319" s="2">
+        <v>0</v>
+      </c>
       <c r="L319" s="1" t="s">
         <v>22</v>
       </c>
@@ -20504,7 +20961,9 @@
       <c r="J320" s="2">
         <v>0</v>
       </c>
-      <c r="K320" s="2"/>
+      <c r="K320" s="2">
+        <v>0</v>
+      </c>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -20541,7 +21000,9 @@
       <c r="J321" s="2">
         <v>0</v>
       </c>
-      <c r="K321" s="2"/>
+      <c r="K321" s="2">
+        <v>0</v>
+      </c>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
@@ -20578,7 +21039,9 @@
       <c r="J322" s="2">
         <v>0</v>
       </c>
-      <c r="K322" s="2"/>
+      <c r="K322" s="2">
+        <v>0</v>
+      </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -20615,7 +21078,9 @@
       <c r="J323" s="2">
         <v>0</v>
       </c>
-      <c r="K323" s="2"/>
+      <c r="K323" s="2">
+        <v>0</v>
+      </c>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
@@ -20652,7 +21117,9 @@
       <c r="J324" s="2">
         <v>0</v>
       </c>
-      <c r="K324" s="2"/>
+      <c r="K324" s="2">
+        <v>0</v>
+      </c>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
@@ -20736,7 +21203,9 @@
       <c r="J326" s="2">
         <v>0</v>
       </c>
-      <c r="K326" s="2"/>
+      <c r="K326" s="2">
+        <v>0</v>
+      </c>
       <c r="L326" s="1" t="s">
         <v>22</v>
       </c>
@@ -20773,13 +21242,15 @@
       <c r="H327" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I327" s="11" t="s">
+      <c r="I327" s="1" t="s">
         <v>825</v>
       </c>
       <c r="J327" s="2">
         <v>0</v>
       </c>
-      <c r="K327" s="2"/>
+      <c r="K327" s="2">
+        <v>0</v>
+      </c>
       <c r="L327" s="1" t="s">
         <v>22</v>
       </c>
@@ -20812,7 +21283,7 @@
       <c r="H328" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I328" s="11" t="s">
+      <c r="I328" s="1" t="s">
         <v>828</v>
       </c>
       <c r="J328" s="2">
@@ -20861,7 +21332,9 @@
       <c r="J329" s="2">
         <v>0</v>
       </c>
-      <c r="K329" s="2"/>
+      <c r="K329" s="2">
+        <v>0</v>
+      </c>
       <c r="L329" s="1" t="s">
         <v>22</v>
       </c>
@@ -20902,7 +21375,9 @@
       <c r="J330" s="2">
         <v>0</v>
       </c>
-      <c r="K330" s="2"/>
+      <c r="K330" s="2">
+        <v>0</v>
+      </c>
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
@@ -21715,7 +22190,9 @@
       <c r="J349" s="2">
         <v>0</v>
       </c>
-      <c r="K349" s="2"/>
+      <c r="K349" s="2">
+        <v>0</v>
+      </c>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1" t="s">
@@ -21754,7 +22231,9 @@
       <c r="J350" s="2">
         <v>0</v>
       </c>
-      <c r="K350" s="2"/>
+      <c r="K350" s="2">
+        <v>0</v>
+      </c>
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1" t="s">
@@ -21793,7 +22272,9 @@
       <c r="J351" s="2">
         <v>0</v>
       </c>
-      <c r="K351" s="2"/>
+      <c r="K351" s="2">
+        <v>0</v>
+      </c>
       <c r="L351" s="1"/>
       <c r="M351" s="1" t="s">
         <v>22</v>
@@ -21832,7 +22313,9 @@
       <c r="J352" s="2">
         <v>0</v>
       </c>
-      <c r="K352" s="2"/>
+      <c r="K352" s="2">
+        <v>0</v>
+      </c>
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -21916,7 +22399,9 @@
       <c r="J354" s="2">
         <v>0</v>
       </c>
-      <c r="K354" s="2"/>
+      <c r="K354" s="2">
+        <v>0</v>
+      </c>
       <c r="L354" s="1" t="s">
         <v>22</v>
       </c>
@@ -21955,7 +22440,9 @@
       <c r="J355" s="2">
         <v>0</v>
       </c>
-      <c r="K355" s="2"/>
+      <c r="K355" s="2">
+        <v>0</v>
+      </c>
       <c r="L355" s="1" t="s">
         <v>22</v>
       </c>
@@ -21996,7 +22483,9 @@
       <c r="J356" s="2">
         <v>0</v>
       </c>
-      <c r="K356" s="2"/>
+      <c r="K356" s="2">
+        <v>0</v>
+      </c>
       <c r="L356" s="1" t="s">
         <v>22</v>
       </c>
@@ -22037,7 +22526,9 @@
       <c r="J357" s="2">
         <v>0</v>
       </c>
-      <c r="K357" s="2"/>
+      <c r="K357" s="2">
+        <v>0</v>
+      </c>
       <c r="L357" s="1" t="s">
         <v>22</v>
       </c>
@@ -22076,7 +22567,9 @@
       <c r="J358" s="2">
         <v>0</v>
       </c>
-      <c r="K358" s="2"/>
+      <c r="K358" s="2">
+        <v>0</v>
+      </c>
       <c r="L358" s="1" t="s">
         <v>22</v>
       </c>
@@ -22117,7 +22610,9 @@
       <c r="J359" s="2">
         <v>0</v>
       </c>
-      <c r="K359" s="2"/>
+      <c r="K359" s="2">
+        <v>0</v>
+      </c>
       <c r="L359" s="1" t="s">
         <v>22</v>
       </c>
@@ -22158,7 +22653,9 @@
       <c r="J360" s="2">
         <v>0</v>
       </c>
-      <c r="K360" s="2"/>
+      <c r="K360" s="2">
+        <v>0</v>
+      </c>
       <c r="L360" s="1" t="s">
         <v>22</v>
       </c>
@@ -22199,7 +22696,9 @@
       <c r="J361" s="2">
         <v>0</v>
       </c>
-      <c r="K361" s="2"/>
+      <c r="K361" s="2">
+        <v>0</v>
+      </c>
       <c r="L361" s="1" t="s">
         <v>22</v>
       </c>
@@ -22240,7 +22739,9 @@
       <c r="J362" s="2">
         <v>0</v>
       </c>
-      <c r="K362" s="2"/>
+      <c r="K362" s="2">
+        <v>0</v>
+      </c>
       <c r="L362" s="1" t="s">
         <v>22</v>
       </c>
@@ -22279,7 +22780,9 @@
       <c r="J363" s="2">
         <v>0</v>
       </c>
-      <c r="K363" s="2"/>
+      <c r="K363" s="2">
+        <v>0</v>
+      </c>
       <c r="L363" s="1" t="s">
         <v>22</v>
       </c>
@@ -22318,7 +22821,9 @@
       <c r="J364" s="2">
         <v>0</v>
       </c>
-      <c r="K364" s="2"/>
+      <c r="K364" s="2">
+        <v>0</v>
+      </c>
       <c r="L364" s="1" t="s">
         <v>22</v>
       </c>
@@ -22355,7 +22860,9 @@
       <c r="J365" s="2">
         <v>0</v>
       </c>
-      <c r="K365" s="2"/>
+      <c r="K365" s="2">
+        <v>0</v>
+      </c>
       <c r="L365" s="1" t="s">
         <v>22</v>
       </c>
@@ -22392,7 +22899,9 @@
       <c r="J366" s="2">
         <v>0</v>
       </c>
-      <c r="K366" s="2"/>
+      <c r="K366" s="2">
+        <v>0</v>
+      </c>
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
@@ -22427,7 +22936,9 @@
       <c r="J367" s="2">
         <v>0</v>
       </c>
-      <c r="K367" s="2"/>
+      <c r="K367" s="2">
+        <v>0</v>
+      </c>
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
@@ -22464,7 +22975,9 @@
       <c r="J368" s="2">
         <v>0</v>
       </c>
-      <c r="K368" s="2"/>
+      <c r="K368" s="2">
+        <v>0</v>
+      </c>
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
@@ -22501,7 +23014,9 @@
       <c r="J369" s="2">
         <v>0</v>
       </c>
-      <c r="K369" s="2"/>
+      <c r="K369" s="2">
+        <v>0</v>
+      </c>
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
@@ -22538,7 +23053,9 @@
       <c r="J370" s="2">
         <v>0</v>
       </c>
-      <c r="K370" s="2"/>
+      <c r="K370" s="2">
+        <v>0</v>
+      </c>
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
@@ -22575,7 +23092,9 @@
       <c r="J371" s="2">
         <v>0</v>
       </c>
-      <c r="K371" s="2"/>
+      <c r="K371" s="2">
+        <v>0</v>
+      </c>
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
@@ -22610,7 +23129,9 @@
       <c r="J372" s="2">
         <v>0</v>
       </c>
-      <c r="K372" s="2"/>
+      <c r="K372" s="2">
+        <v>0</v>
+      </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
@@ -22862,7 +23383,9 @@
       <c r="J378" s="2">
         <v>0</v>
       </c>
-      <c r="K378" s="2"/>
+      <c r="K378" s="2">
+        <v>0</v>
+      </c>
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1" t="s">
@@ -22946,7 +23469,9 @@
       <c r="J380" s="2">
         <v>0</v>
       </c>
-      <c r="K380" s="2"/>
+      <c r="K380" s="2">
+        <v>0</v>
+      </c>
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
@@ -23116,7 +23641,9 @@
       <c r="J384" s="2">
         <v>0</v>
       </c>
-      <c r="K384" s="2"/>
+      <c r="K384" s="2">
+        <v>0</v>
+      </c>
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1" t="s">
@@ -23155,7 +23682,9 @@
       <c r="J385" s="2">
         <v>0</v>
       </c>
-      <c r="K385" s="2"/>
+      <c r="K385" s="2">
+        <v>0</v>
+      </c>
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1" t="s">
@@ -23194,7 +23723,9 @@
       <c r="J386" s="2">
         <v>0</v>
       </c>
-      <c r="K386" s="2"/>
+      <c r="K386" s="2">
+        <v>0</v>
+      </c>
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1" t="s">
@@ -23233,7 +23764,9 @@
       <c r="J387" s="2">
         <v>0</v>
       </c>
-      <c r="K387" s="2"/>
+      <c r="K387" s="2">
+        <v>0</v>
+      </c>
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1" t="s">
@@ -23272,7 +23805,9 @@
       <c r="J388" s="2">
         <v>0</v>
       </c>
-      <c r="K388" s="2"/>
+      <c r="K388" s="2">
+        <v>0</v>
+      </c>
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1" t="s">
@@ -23311,7 +23846,9 @@
       <c r="J389" s="2">
         <v>0</v>
       </c>
-      <c r="K389" s="2"/>
+      <c r="K389" s="2">
+        <v>0</v>
+      </c>
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1" t="s">
@@ -23350,7 +23887,9 @@
       <c r="J390" s="2">
         <v>0</v>
       </c>
-      <c r="K390" s="2"/>
+      <c r="K390" s="2">
+        <v>0</v>
+      </c>
       <c r="L390" s="1" t="s">
         <v>22</v>
       </c>
@@ -23391,7 +23930,9 @@
       <c r="J391" s="2">
         <v>0</v>
       </c>
-      <c r="K391" s="2"/>
+      <c r="K391" s="2">
+        <v>0</v>
+      </c>
       <c r="L391" s="1" t="s">
         <v>22</v>
       </c>
@@ -23477,7 +24018,9 @@
       <c r="J393" s="2">
         <v>0</v>
       </c>
-      <c r="K393" s="2"/>
+      <c r="K393" s="2">
+        <v>0</v>
+      </c>
       <c r="L393" s="1" t="s">
         <v>22</v>
       </c>
@@ -23516,7 +24059,9 @@
       <c r="J394" s="2">
         <v>0</v>
       </c>
-      <c r="K394" s="2"/>
+      <c r="K394" s="2">
+        <v>0</v>
+      </c>
       <c r="L394" s="1" t="s">
         <v>22</v>
       </c>
@@ -23557,7 +24102,9 @@
       <c r="J395" s="2">
         <v>0</v>
       </c>
-      <c r="K395" s="2"/>
+      <c r="K395" s="2">
+        <v>0</v>
+      </c>
       <c r="L395" s="1" t="s">
         <v>22</v>
       </c>
@@ -23596,7 +24143,9 @@
       <c r="J396" s="2">
         <v>0</v>
       </c>
-      <c r="K396" s="2"/>
+      <c r="K396" s="2">
+        <v>0</v>
+      </c>
       <c r="L396" s="1" t="s">
         <v>22</v>
       </c>
@@ -23635,7 +24184,9 @@
       <c r="J397" s="2">
         <v>0</v>
       </c>
-      <c r="K397" s="2"/>
+      <c r="K397" s="2">
+        <v>0</v>
+      </c>
       <c r="L397" s="1" t="s">
         <v>22</v>
       </c>
@@ -23674,7 +24225,9 @@
       <c r="J398" s="2">
         <v>0</v>
       </c>
-      <c r="K398" s="2"/>
+      <c r="K398" s="2">
+        <v>0</v>
+      </c>
       <c r="L398" s="1" t="s">
         <v>22</v>
       </c>
@@ -23709,7 +24262,7 @@
       <c r="H399" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="I399" s="11" t="s">
+      <c r="I399" s="1" t="s">
         <v>990</v>
       </c>
       <c r="J399" s="2">
@@ -23756,7 +24309,9 @@
       <c r="J400" s="2">
         <v>0</v>
       </c>
-      <c r="K400" s="2"/>
+      <c r="K400" s="2">
+        <v>0</v>
+      </c>
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
@@ -23793,7 +24348,9 @@
       <c r="J401" s="2">
         <v>0</v>
       </c>
-      <c r="K401" s="2"/>
+      <c r="K401" s="2">
+        <v>0</v>
+      </c>
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
@@ -23830,7 +24387,9 @@
       <c r="J402" s="2">
         <v>0</v>
       </c>
-      <c r="K402" s="2"/>
+      <c r="K402" s="2">
+        <v>0</v>
+      </c>
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
@@ -23867,7 +24426,9 @@
       <c r="J403" s="2">
         <v>0</v>
       </c>
-      <c r="K403" s="2"/>
+      <c r="K403" s="2">
+        <v>0</v>
+      </c>
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
@@ -23906,7 +24467,9 @@
       <c r="J404" s="2">
         <v>0</v>
       </c>
-      <c r="K404" s="2"/>
+      <c r="K404" s="2">
+        <v>0</v>
+      </c>
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
@@ -23943,7 +24506,9 @@
       <c r="J405" s="2">
         <v>0</v>
       </c>
-      <c r="K405" s="2"/>
+      <c r="K405" s="2">
+        <v>0</v>
+      </c>
       <c r="L405" s="1" t="s">
         <v>22</v>
       </c>
@@ -23982,7 +24547,9 @@
       <c r="J406" s="2">
         <v>0</v>
       </c>
-      <c r="K406" s="2"/>
+      <c r="K406" s="2">
+        <v>0</v>
+      </c>
       <c r="L406" s="1" t="s">
         <v>22</v>
       </c>
@@ -24111,7 +24678,9 @@
       <c r="J409" s="2">
         <v>0</v>
       </c>
-      <c r="K409" s="2"/>
+      <c r="K409" s="2">
+        <v>0</v>
+      </c>
       <c r="L409" s="1" t="s">
         <v>22</v>
       </c>
@@ -24148,7 +24717,9 @@
       <c r="J410" s="2">
         <v>0</v>
       </c>
-      <c r="K410" s="2"/>
+      <c r="K410" s="2">
+        <v>0</v>
+      </c>
       <c r="L410" s="1" t="s">
         <v>22</v>
       </c>
@@ -24185,7 +24756,9 @@
       <c r="J411" s="2">
         <v>0</v>
       </c>
-      <c r="K411" s="2"/>
+      <c r="K411" s="2">
+        <v>0</v>
+      </c>
       <c r="L411" s="1" t="s">
         <v>22</v>
       </c>
@@ -24222,7 +24795,9 @@
       <c r="J412" s="2">
         <v>0</v>
       </c>
-      <c r="K412" s="2"/>
+      <c r="K412" s="2">
+        <v>0</v>
+      </c>
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
@@ -24257,7 +24832,9 @@
       <c r="J413" s="2">
         <v>0</v>
       </c>
-      <c r="K413" s="2"/>
+      <c r="K413" s="2">
+        <v>0</v>
+      </c>
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
@@ -24288,7 +24865,7 @@
       <c r="H414" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="I414" s="11" t="s">
+      <c r="I414" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="J414" s="2">
@@ -24331,7 +24908,7 @@
       <c r="H415" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="I415" s="11" t="s">
+      <c r="I415" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="J415" s="2">
@@ -24374,7 +24951,7 @@
       <c r="H416" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="I416" s="11"/>
+      <c r="I416" s="1"/>
       <c r="J416" s="2">
         <v>1</v>
       </c>
@@ -24545,7 +25122,9 @@
       <c r="J420" s="2">
         <v>0</v>
       </c>
-      <c r="K420" s="2"/>
+      <c r="K420" s="2">
+        <v>0</v>
+      </c>
       <c r="L420" s="1" t="s">
         <v>19</v>
       </c>
@@ -24582,7 +25161,9 @@
       <c r="J421" s="2">
         <v>0</v>
       </c>
-      <c r="K421" s="2"/>
+      <c r="K421" s="2">
+        <v>0</v>
+      </c>
       <c r="L421" s="1" t="s">
         <v>1999</v>
       </c>
@@ -24662,7 +25243,9 @@
       <c r="J423" s="2">
         <v>0</v>
       </c>
-      <c r="K423" s="2"/>
+      <c r="K423" s="2">
+        <v>0</v>
+      </c>
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
@@ -24699,7 +25282,9 @@
       <c r="J424" s="2">
         <v>0</v>
       </c>
-      <c r="K424" s="2"/>
+      <c r="K424" s="2">
+        <v>0</v>
+      </c>
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
@@ -24736,7 +25321,9 @@
       <c r="J425" s="2">
         <v>0</v>
       </c>
-      <c r="K425" s="2"/>
+      <c r="K425" s="2">
+        <v>0</v>
+      </c>
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
@@ -24773,7 +25360,9 @@
       <c r="J426" s="2">
         <v>0</v>
       </c>
-      <c r="K426" s="2"/>
+      <c r="K426" s="2">
+        <v>0</v>
+      </c>
       <c r="L426" s="1" t="s">
         <v>19</v>
       </c>
@@ -24810,7 +25399,9 @@
       <c r="J427" s="2">
         <v>0</v>
       </c>
-      <c r="K427" s="2"/>
+      <c r="K427" s="2">
+        <v>0</v>
+      </c>
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
@@ -24845,7 +25436,9 @@
       <c r="J428" s="2">
         <v>0</v>
       </c>
-      <c r="K428" s="2"/>
+      <c r="K428" s="2">
+        <v>0</v>
+      </c>
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
@@ -24882,7 +25475,9 @@
       <c r="J429" s="2">
         <v>0</v>
       </c>
-      <c r="K429" s="2"/>
+      <c r="K429" s="2">
+        <v>0</v>
+      </c>
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
@@ -24919,7 +25514,9 @@
       <c r="J430" s="2">
         <v>1</v>
       </c>
-      <c r="K430" s="2"/>
+      <c r="K430" s="2">
+        <v>0</v>
+      </c>
       <c r="L430" s="1" t="s">
         <v>1782</v>
       </c>
@@ -24958,7 +25555,9 @@
       <c r="J431" s="2">
         <v>0</v>
       </c>
-      <c r="K431" s="2"/>
+      <c r="K431" s="2">
+        <v>0</v>
+      </c>
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
@@ -24993,7 +25592,9 @@
       <c r="J432" s="2">
         <v>0</v>
       </c>
-      <c r="K432" s="2"/>
+      <c r="K432" s="2">
+        <v>0</v>
+      </c>
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
@@ -25030,7 +25631,9 @@
       <c r="J433" s="2">
         <v>0</v>
       </c>
-      <c r="K433" s="2"/>
+      <c r="K433" s="2">
+        <v>0</v>
+      </c>
       <c r="L433" s="1" t="s">
         <v>19</v>
       </c>
@@ -25157,7 +25760,9 @@
       <c r="J436" s="2">
         <v>0</v>
       </c>
-      <c r="K436" s="2"/>
+      <c r="K436" s="2">
+        <v>0</v>
+      </c>
       <c r="L436" s="1" t="s">
         <v>19</v>
       </c>
@@ -25362,7 +25967,9 @@
       <c r="J441" s="2">
         <v>0</v>
       </c>
-      <c r="K441" s="2"/>
+      <c r="K441" s="2">
+        <v>0</v>
+      </c>
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
@@ -25399,7 +26006,9 @@
       <c r="J442" s="2">
         <v>0</v>
       </c>
-      <c r="K442" s="2"/>
+      <c r="K442" s="2">
+        <v>0</v>
+      </c>
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
@@ -25434,7 +26043,9 @@
       <c r="J443" s="2">
         <v>0</v>
       </c>
-      <c r="K443" s="2"/>
+      <c r="K443" s="2">
+        <v>0</v>
+      </c>
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
@@ -25469,7 +26080,9 @@
       <c r="J444" s="2">
         <v>0</v>
       </c>
-      <c r="K444" s="2"/>
+      <c r="K444" s="2">
+        <v>0</v>
+      </c>
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
@@ -25674,7 +26287,9 @@
       <c r="J449" s="2">
         <v>0</v>
       </c>
-      <c r="K449" s="2"/>
+      <c r="K449" s="2">
+        <v>0</v>
+      </c>
       <c r="L449" s="1" t="s">
         <v>19</v>
       </c>
@@ -25713,7 +26328,9 @@
       <c r="J450" s="2">
         <v>0</v>
       </c>
-      <c r="K450" s="2"/>
+      <c r="K450" s="2">
+        <v>0</v>
+      </c>
       <c r="L450" s="1" t="s">
         <v>19</v>
       </c>
@@ -25758,7 +26375,9 @@
       <c r="J451" s="2">
         <v>0</v>
       </c>
-      <c r="K451" s="2"/>
+      <c r="K451" s="2">
+        <v>0</v>
+      </c>
       <c r="L451" s="1" t="s">
         <v>47</v>
       </c>
@@ -25797,7 +26416,9 @@
       <c r="J452" s="2">
         <v>0</v>
       </c>
-      <c r="K452" s="2"/>
+      <c r="K452" s="2">
+        <v>0</v>
+      </c>
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
@@ -25916,7 +26537,9 @@
       <c r="J455" s="2">
         <v>0</v>
       </c>
-      <c r="K455" s="2"/>
+      <c r="K455" s="2">
+        <v>0</v>
+      </c>
       <c r="L455" s="1" t="s">
         <v>19</v>
       </c>
@@ -25994,7 +26617,7 @@
       <c r="H457" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="I457" s="11" t="s">
+      <c r="I457" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="J457" s="2">
@@ -26227,7 +26850,9 @@
       <c r="J462" s="2">
         <v>0</v>
       </c>
-      <c r="K462" s="2"/>
+      <c r="K462" s="2">
+        <v>0</v>
+      </c>
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
@@ -26346,7 +26971,9 @@
       <c r="J465" s="2">
         <v>0</v>
       </c>
-      <c r="K465" s="2"/>
+      <c r="K465" s="2">
+        <v>0</v>
+      </c>
       <c r="L465" s="1" t="s">
         <v>19</v>
       </c>
@@ -26514,7 +27141,9 @@
       <c r="J469" s="2">
         <v>0</v>
       </c>
-      <c r="K469" s="2"/>
+      <c r="K469" s="2">
+        <v>0</v>
+      </c>
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
@@ -26590,7 +27219,9 @@
       <c r="J471" s="2">
         <v>0</v>
       </c>
-      <c r="K471" s="2"/>
+      <c r="K471" s="2">
+        <v>0</v>
+      </c>
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
@@ -26627,7 +27258,9 @@
       <c r="J472" s="2">
         <v>0</v>
       </c>
-      <c r="K472" s="2"/>
+      <c r="K472" s="2">
+        <v>0</v>
+      </c>
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
@@ -26664,7 +27297,9 @@
       <c r="J473" s="2">
         <v>0</v>
       </c>
-      <c r="K473" s="2"/>
+      <c r="K473" s="2">
+        <v>0</v>
+      </c>
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
@@ -26701,7 +27336,9 @@
       <c r="J474" s="2">
         <v>0</v>
       </c>
-      <c r="K474" s="2"/>
+      <c r="K474" s="2">
+        <v>0</v>
+      </c>
       <c r="L474" s="1" t="s">
         <v>19</v>
       </c>
@@ -26740,7 +27377,9 @@
       <c r="J475" s="2">
         <v>0</v>
       </c>
-      <c r="K475" s="2"/>
+      <c r="K475" s="2">
+        <v>0</v>
+      </c>
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
@@ -26777,7 +27416,9 @@
       <c r="J476" s="2">
         <v>0</v>
       </c>
-      <c r="K476" s="2"/>
+      <c r="K476" s="2">
+        <v>0</v>
+      </c>
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
@@ -26855,7 +27496,9 @@
       <c r="J478" s="2">
         <v>0</v>
       </c>
-      <c r="K478" s="2"/>
+      <c r="K478" s="2">
+        <v>0</v>
+      </c>
       <c r="L478" t="s">
         <v>2022</v>
       </c>
@@ -26898,7 +27541,9 @@
       <c r="J479" s="2">
         <v>0</v>
       </c>
-      <c r="K479" s="2"/>
+      <c r="K479" s="2">
+        <v>0</v>
+      </c>
       <c r="L479" s="1" t="s">
         <v>19</v>
       </c>
@@ -26937,7 +27582,9 @@
       <c r="J480" s="2">
         <v>0</v>
       </c>
-      <c r="K480" s="2"/>
+      <c r="K480" s="2">
+        <v>0</v>
+      </c>
       <c r="L480" s="1" t="s">
         <v>19</v>
       </c>
@@ -26976,7 +27623,9 @@
       <c r="J481" s="2">
         <v>0</v>
       </c>
-      <c r="K481" s="2"/>
+      <c r="K481" s="2">
+        <v>0</v>
+      </c>
       <c r="L481" s="1" t="s">
         <v>19</v>
       </c>
@@ -27015,7 +27664,9 @@
       <c r="J482" s="2">
         <v>0</v>
       </c>
-      <c r="K482" s="2"/>
+      <c r="K482" s="2">
+        <v>0</v>
+      </c>
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
@@ -27320,7 +27971,7 @@
       <c r="H489" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="I489" s="11" t="s">
+      <c r="I489" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="J489" s="2">
@@ -27459,7 +28110,9 @@
       <c r="J492" s="2">
         <v>0</v>
       </c>
-      <c r="K492" s="2"/>
+      <c r="K492" s="2">
+        <v>0</v>
+      </c>
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
@@ -27496,7 +28149,9 @@
       <c r="J493" s="2">
         <v>0</v>
       </c>
-      <c r="K493" s="2"/>
+      <c r="K493" s="2">
+        <v>0</v>
+      </c>
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
@@ -27533,7 +28188,9 @@
       <c r="J494" s="2">
         <v>0</v>
       </c>
-      <c r="K494" s="2"/>
+      <c r="K494" s="2">
+        <v>0</v>
+      </c>
       <c r="L494" s="1" t="s">
         <v>19</v>
       </c>
@@ -27574,7 +28231,9 @@
       <c r="J495" s="2">
         <v>0</v>
       </c>
-      <c r="K495" s="2"/>
+      <c r="K495" s="2">
+        <v>0</v>
+      </c>
       <c r="L495" s="1" t="s">
         <v>19</v>
       </c>
@@ -27615,7 +28274,9 @@
       <c r="J496" s="2">
         <v>0</v>
       </c>
-      <c r="K496" s="2"/>
+      <c r="K496" s="2">
+        <v>0</v>
+      </c>
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
@@ -27695,7 +28356,9 @@
       <c r="J498" s="2">
         <v>0</v>
       </c>
-      <c r="K498" s="2"/>
+      <c r="K498" s="2">
+        <v>0</v>
+      </c>
       <c r="L498" s="1" t="s">
         <v>19</v>
       </c>
@@ -27734,7 +28397,9 @@
       <c r="J499" s="2">
         <v>0</v>
       </c>
-      <c r="K499" s="2"/>
+      <c r="K499" s="2">
+        <v>0</v>
+      </c>
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
@@ -27771,7 +28436,9 @@
       <c r="J500" s="2">
         <v>0</v>
       </c>
-      <c r="K500" s="2"/>
+      <c r="K500" s="2">
+        <v>0</v>
+      </c>
       <c r="L500" s="1" t="s">
         <v>19</v>
       </c>
@@ -27892,7 +28559,9 @@
       <c r="J503" s="2">
         <v>0</v>
       </c>
-      <c r="K503" s="2"/>
+      <c r="K503" s="2">
+        <v>0</v>
+      </c>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
@@ -27923,7 +28592,7 @@
       <c r="H504" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="I504" s="11" t="s">
+      <c r="I504" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="J504" s="2">
@@ -27966,7 +28635,7 @@
       <c r="H505" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="I505" s="11" t="s">
+      <c r="I505" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="J505" s="2">
@@ -28152,7 +28821,9 @@
       <c r="J509" s="2">
         <v>0</v>
       </c>
-      <c r="K509" s="2"/>
+      <c r="K509" s="2">
+        <v>0</v>
+      </c>
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
@@ -28189,7 +28860,9 @@
       <c r="J510" s="2">
         <v>0</v>
       </c>
-      <c r="K510" s="2"/>
+      <c r="K510" s="2">
+        <v>0</v>
+      </c>
       <c r="L510" s="1" t="s">
         <v>22</v>
       </c>
@@ -28230,7 +28903,9 @@
       <c r="J511" s="2">
         <v>0</v>
       </c>
-      <c r="K511" s="2"/>
+      <c r="K511" s="2">
+        <v>0</v>
+      </c>
       <c r="L511" s="1" t="s">
         <v>22</v>
       </c>
@@ -28269,7 +28944,9 @@
       <c r="J512" s="2">
         <v>0</v>
       </c>
-      <c r="K512" s="2"/>
+      <c r="K512" s="2">
+        <v>0</v>
+      </c>
       <c r="L512" s="1" t="s">
         <v>22</v>
       </c>
@@ -28308,7 +28985,9 @@
       <c r="J513" s="2">
         <v>0</v>
       </c>
-      <c r="K513" s="2"/>
+      <c r="K513" s="2">
+        <v>0</v>
+      </c>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
@@ -28345,7 +29024,9 @@
       <c r="J514" s="2">
         <v>0</v>
       </c>
-      <c r="K514" s="2"/>
+      <c r="K514" s="2">
+        <v>0</v>
+      </c>
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
@@ -28382,7 +29063,9 @@
       <c r="J515" s="2">
         <v>0</v>
       </c>
-      <c r="K515" s="2"/>
+      <c r="K515" s="2">
+        <v>0</v>
+      </c>
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
@@ -28419,7 +29102,9 @@
       <c r="J516" s="2">
         <v>0</v>
       </c>
-      <c r="K516" s="2"/>
+      <c r="K516" s="2">
+        <v>0</v>
+      </c>
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
@@ -28456,7 +29141,9 @@
       <c r="J517" s="2">
         <v>0</v>
       </c>
-      <c r="K517" s="2"/>
+      <c r="K517" s="2">
+        <v>0</v>
+      </c>
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
@@ -28493,7 +29180,9 @@
       <c r="J518" s="2">
         <v>0</v>
       </c>
-      <c r="K518" s="2"/>
+      <c r="K518" s="2">
+        <v>0</v>
+      </c>
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
@@ -28530,7 +29219,9 @@
       <c r="J519" s="2">
         <v>0</v>
       </c>
-      <c r="K519" s="2"/>
+      <c r="K519" s="2">
+        <v>0</v>
+      </c>
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
@@ -28567,7 +29258,9 @@
       <c r="J520" s="2">
         <v>0</v>
       </c>
-      <c r="K520" s="2"/>
+      <c r="K520" s="2">
+        <v>0</v>
+      </c>
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
@@ -28604,7 +29297,9 @@
       <c r="J521" s="2">
         <v>0</v>
       </c>
-      <c r="K521" s="2"/>
+      <c r="K521" s="2">
+        <v>0</v>
+      </c>
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
@@ -28641,7 +29336,9 @@
       <c r="J522" s="2">
         <v>0</v>
       </c>
-      <c r="K522" s="2"/>
+      <c r="K522" s="2">
+        <v>0</v>
+      </c>
       <c r="L522" s="1" t="s">
         <v>47</v>
       </c>
@@ -28680,7 +29377,9 @@
       <c r="J523" s="2">
         <v>0</v>
       </c>
-      <c r="K523" s="2"/>
+      <c r="K523" s="2">
+        <v>0</v>
+      </c>
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
@@ -28717,7 +29416,9 @@
       <c r="J524" s="2">
         <v>0</v>
       </c>
-      <c r="K524" s="2"/>
+      <c r="K524" s="2">
+        <v>0</v>
+      </c>
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
@@ -28754,7 +29455,9 @@
       <c r="J525" s="2">
         <v>0</v>
       </c>
-      <c r="K525" s="2"/>
+      <c r="K525" s="2">
+        <v>0</v>
+      </c>
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
@@ -28791,7 +29494,9 @@
       <c r="J526" s="2">
         <v>0</v>
       </c>
-      <c r="K526" s="2"/>
+      <c r="K526" s="2">
+        <v>0</v>
+      </c>
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
@@ -28828,7 +29533,9 @@
       <c r="J527" s="2">
         <v>0</v>
       </c>
-      <c r="K527" s="2"/>
+      <c r="K527" s="2">
+        <v>0</v>
+      </c>
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
@@ -28865,7 +29572,9 @@
       <c r="J528" s="2">
         <v>0</v>
       </c>
-      <c r="K528" s="2"/>
+      <c r="K528" s="2">
+        <v>0</v>
+      </c>
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
@@ -28902,7 +29611,9 @@
       <c r="J529" s="2">
         <v>0</v>
       </c>
-      <c r="K529" s="2"/>
+      <c r="K529" s="2">
+        <v>0</v>
+      </c>
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
@@ -28939,7 +29650,9 @@
       <c r="J530" s="2">
         <v>0</v>
       </c>
-      <c r="K530" s="2"/>
+      <c r="K530" s="2">
+        <v>0</v>
+      </c>
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
@@ -28976,7 +29689,9 @@
       <c r="J531" s="2">
         <v>0</v>
       </c>
-      <c r="K531" s="2"/>
+      <c r="K531" s="2">
+        <v>0</v>
+      </c>
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
@@ -29013,7 +29728,9 @@
       <c r="J532" s="2">
         <v>0</v>
       </c>
-      <c r="K532" s="2"/>
+      <c r="K532" s="2">
+        <v>0</v>
+      </c>
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
@@ -29050,7 +29767,9 @@
       <c r="J533" s="2">
         <v>0</v>
       </c>
-      <c r="K533" s="2"/>
+      <c r="K533" s="2">
+        <v>0</v>
+      </c>
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
@@ -29087,7 +29806,9 @@
       <c r="J534" s="2">
         <v>0</v>
       </c>
-      <c r="K534" s="2"/>
+      <c r="K534" s="2">
+        <v>0</v>
+      </c>
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
@@ -29124,7 +29845,9 @@
       <c r="J535" s="2">
         <v>0</v>
       </c>
-      <c r="K535" s="2"/>
+      <c r="K535" s="2">
+        <v>0</v>
+      </c>
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
@@ -29161,7 +29884,9 @@
       <c r="J536" s="2">
         <v>0</v>
       </c>
-      <c r="K536" s="2"/>
+      <c r="K536" s="2">
+        <v>0</v>
+      </c>
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
@@ -29198,7 +29923,9 @@
       <c r="J537" s="2">
         <v>0</v>
       </c>
-      <c r="K537" s="2"/>
+      <c r="K537" s="2">
+        <v>0</v>
+      </c>
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
@@ -29235,7 +29962,9 @@
       <c r="J538" s="2">
         <v>0</v>
       </c>
-      <c r="K538" s="2"/>
+      <c r="K538" s="2">
+        <v>0</v>
+      </c>
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
@@ -29272,7 +30001,9 @@
       <c r="J539" s="2">
         <v>0</v>
       </c>
-      <c r="K539" s="2"/>
+      <c r="K539" s="2">
+        <v>0</v>
+      </c>
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
@@ -29309,7 +30040,9 @@
       <c r="J540" s="2">
         <v>0</v>
       </c>
-      <c r="K540" s="2"/>
+      <c r="K540" s="2">
+        <v>0</v>
+      </c>
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
@@ -29346,7 +30079,9 @@
       <c r="J541" s="2">
         <v>0</v>
       </c>
-      <c r="K541" s="2"/>
+      <c r="K541" s="2">
+        <v>0</v>
+      </c>
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
@@ -29383,7 +30118,9 @@
       <c r="J542" s="2">
         <v>0</v>
       </c>
-      <c r="K542" s="2"/>
+      <c r="K542" s="2">
+        <v>0</v>
+      </c>
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
@@ -29420,7 +30157,9 @@
       <c r="J543" s="2">
         <v>0</v>
       </c>
-      <c r="K543" s="2"/>
+      <c r="K543" s="2">
+        <v>0</v>
+      </c>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
@@ -29457,7 +30196,9 @@
       <c r="J544" s="2">
         <v>0</v>
       </c>
-      <c r="K544" s="2"/>
+      <c r="K544" s="2">
+        <v>0</v>
+      </c>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
       <c r="N544" s="1"/>
@@ -29494,7 +30235,9 @@
       <c r="J545" s="2">
         <v>0</v>
       </c>
-      <c r="K545" s="2"/>
+      <c r="K545" s="2">
+        <v>0</v>
+      </c>
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
@@ -29531,7 +30274,9 @@
       <c r="J546" s="2">
         <v>0</v>
       </c>
-      <c r="K546" s="2"/>
+      <c r="K546" s="2">
+        <v>0</v>
+      </c>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
@@ -29568,7 +30313,9 @@
       <c r="J547" s="2">
         <v>0</v>
       </c>
-      <c r="K547" s="2"/>
+      <c r="K547" s="2">
+        <v>0</v>
+      </c>
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
@@ -29603,7 +30350,9 @@
       <c r="J548" s="2">
         <v>0</v>
       </c>
-      <c r="K548" s="2"/>
+      <c r="K548" s="2">
+        <v>0</v>
+      </c>
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
@@ -29638,7 +30387,9 @@
       <c r="J549" s="2">
         <v>0</v>
       </c>
-      <c r="K549" s="2"/>
+      <c r="K549" s="2">
+        <v>0</v>
+      </c>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
       <c r="N549" s="1"/>
@@ -29673,7 +30424,9 @@
       <c r="J550" s="2">
         <v>0</v>
       </c>
-      <c r="K550" s="2"/>
+      <c r="K550" s="2">
+        <v>0</v>
+      </c>
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
@@ -29708,7 +30461,9 @@
       <c r="J551" s="2">
         <v>0</v>
       </c>
-      <c r="K551" s="2"/>
+      <c r="K551" s="2">
+        <v>0</v>
+      </c>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
@@ -29745,7 +30500,9 @@
       <c r="J552" s="2">
         <v>0</v>
       </c>
-      <c r="K552" s="2"/>
+      <c r="K552" s="2">
+        <v>0</v>
+      </c>
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
       <c r="N552" s="1"/>
@@ -29782,7 +30539,9 @@
       <c r="J553" s="2">
         <v>0</v>
       </c>
-      <c r="K553" s="2"/>
+      <c r="K553" s="2">
+        <v>0</v>
+      </c>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
@@ -29817,7 +30576,9 @@
       <c r="J554" s="2">
         <v>0</v>
       </c>
-      <c r="K554" s="2"/>
+      <c r="K554" s="2">
+        <v>0</v>
+      </c>
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
@@ -29854,7 +30615,9 @@
       <c r="J555" s="2">
         <v>0</v>
       </c>
-      <c r="K555" s="2"/>
+      <c r="K555" s="2">
+        <v>0</v>
+      </c>
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
@@ -29891,7 +30654,9 @@
       <c r="J556" s="2">
         <v>0</v>
       </c>
-      <c r="K556" s="2"/>
+      <c r="K556" s="2">
+        <v>0</v>
+      </c>
       <c r="L556" s="1" t="s">
         <v>1731</v>
       </c>
@@ -29932,7 +30697,9 @@
       <c r="J557" s="2">
         <v>0</v>
       </c>
-      <c r="K557" s="2"/>
+      <c r="K557" s="2">
+        <v>0</v>
+      </c>
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
       <c r="N557" s="1"/>
@@ -30012,7 +30779,9 @@
       <c r="J559" s="2">
         <v>0</v>
       </c>
-      <c r="K559" s="2"/>
+      <c r="K559" s="2">
+        <v>0</v>
+      </c>
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
       <c r="N559" s="1"/>
@@ -30043,7 +30812,7 @@
       <c r="H560" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="I560" s="11" t="s">
+      <c r="I560" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="J560" s="2">
@@ -30094,7 +30863,9 @@
       <c r="J561" s="2">
         <v>0</v>
       </c>
-      <c r="K561" s="2"/>
+      <c r="K561" s="2">
+        <v>0</v>
+      </c>
       <c r="L561" s="1" t="s">
         <v>2022</v>
       </c>
@@ -30135,7 +30906,9 @@
       <c r="J562" s="2">
         <v>0</v>
       </c>
-      <c r="K562" s="2"/>
+      <c r="K562" s="2">
+        <v>0</v>
+      </c>
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
       <c r="N562" s="1"/>
@@ -30215,7 +30988,9 @@
       <c r="J564" s="2">
         <v>0</v>
       </c>
-      <c r="K564" s="2"/>
+      <c r="K564" s="2">
+        <v>0</v>
+      </c>
       <c r="L564" s="1" t="s">
         <v>1758</v>
       </c>
@@ -30254,7 +31029,9 @@
       <c r="J565" s="2">
         <v>0</v>
       </c>
-      <c r="K565" s="2"/>
+      <c r="K565" s="2">
+        <v>0</v>
+      </c>
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
       <c r="N565" s="1"/>
@@ -30285,13 +31062,15 @@
       <c r="H566" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="I566" s="11" t="s">
+      <c r="I566" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="J566" s="2">
         <v>0</v>
       </c>
-      <c r="K566" s="2"/>
+      <c r="K566" s="2">
+        <v>0</v>
+      </c>
       <c r="L566" s="1" t="s">
         <v>22</v>
       </c>
@@ -30332,7 +31111,9 @@
       <c r="J567" s="2">
         <v>0</v>
       </c>
-      <c r="K567" s="2"/>
+      <c r="K567" s="2">
+        <v>0</v>
+      </c>
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
       <c r="N567" s="1"/>
@@ -30369,7 +31150,9 @@
       <c r="J568" s="2">
         <v>0</v>
       </c>
-      <c r="K568" s="2"/>
+      <c r="K568" s="2">
+        <v>0</v>
+      </c>
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
       <c r="N568" s="1"/>
@@ -30406,7 +31189,9 @@
       <c r="J569" s="2">
         <v>0</v>
       </c>
-      <c r="K569" s="2"/>
+      <c r="K569" s="2">
+        <v>0</v>
+      </c>
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
       <c r="N569" s="1"/>
@@ -30441,7 +31226,9 @@
       <c r="J570" s="2">
         <v>0</v>
       </c>
-      <c r="K570" s="2"/>
+      <c r="K570" s="2">
+        <v>0</v>
+      </c>
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
       <c r="N570" s="1"/>
@@ -30478,7 +31265,9 @@
       <c r="J571" s="2">
         <v>0</v>
       </c>
-      <c r="K571" s="2"/>
+      <c r="K571" s="2">
+        <v>0</v>
+      </c>
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
       <c r="N571" s="1"/>
@@ -30556,7 +31345,7 @@
       <c r="H573" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="I573" s="11" t="s">
+      <c r="I573" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="J573" s="2">
@@ -30605,7 +31394,9 @@
       <c r="J574" s="2">
         <v>0</v>
       </c>
-      <c r="K574" s="2"/>
+      <c r="K574" s="2">
+        <v>0</v>
+      </c>
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
       <c r="N574" s="1"/>
@@ -30642,7 +31433,9 @@
       <c r="J575" s="2">
         <v>0</v>
       </c>
-      <c r="K575" s="2"/>
+      <c r="K575" s="2">
+        <v>0</v>
+      </c>
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
       <c r="N575" s="1"/>
@@ -30679,7 +31472,9 @@
       <c r="J576" s="2">
         <v>0</v>
       </c>
-      <c r="K576" s="2"/>
+      <c r="K576" s="2">
+        <v>0</v>
+      </c>
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
       <c r="N576" s="1"/>
@@ -30716,7 +31511,9 @@
       <c r="J577" s="2">
         <v>0</v>
       </c>
-      <c r="K577" s="2"/>
+      <c r="K577" s="2">
+        <v>0</v>
+      </c>
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
       <c r="N577" s="1"/>
@@ -30753,7 +31550,9 @@
       <c r="J578" s="2">
         <v>0</v>
       </c>
-      <c r="K578" s="2"/>
+      <c r="K578" s="2">
+        <v>0</v>
+      </c>
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
       <c r="N578" s="1"/>
@@ -30834,7 +31633,9 @@
       <c r="J580" s="2">
         <v>0</v>
       </c>
-      <c r="K580" s="2"/>
+      <c r="K580" s="2">
+        <v>0</v>
+      </c>
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
@@ -30871,7 +31672,9 @@
       <c r="J581" s="2">
         <v>0</v>
       </c>
-      <c r="K581" s="2"/>
+      <c r="K581" s="2">
+        <v>0</v>
+      </c>
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
       <c r="N581" s="1"/>
@@ -30908,7 +31711,9 @@
       <c r="J582" s="2">
         <v>0</v>
       </c>
-      <c r="K582" s="2"/>
+      <c r="K582" s="2">
+        <v>0</v>
+      </c>
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
       <c r="N582" s="1"/>
@@ -30945,7 +31750,9 @@
       <c r="J583" s="2">
         <v>0</v>
       </c>
-      <c r="K583" s="2"/>
+      <c r="K583" s="2">
+        <v>0</v>
+      </c>
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
       <c r="N583" s="1"/>
@@ -30982,7 +31789,9 @@
       <c r="J584" s="2">
         <v>0</v>
       </c>
-      <c r="K584" s="2"/>
+      <c r="K584" s="2">
+        <v>0</v>
+      </c>
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
       <c r="N584" s="1"/>
@@ -31019,7 +31828,9 @@
       <c r="J585" s="2">
         <v>0</v>
       </c>
-      <c r="K585" s="2"/>
+      <c r="K585" s="2">
+        <v>0</v>
+      </c>
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
       <c r="N585" s="1"/>
@@ -31056,7 +31867,9 @@
       <c r="J586" s="2">
         <v>0</v>
       </c>
-      <c r="K586" s="2"/>
+      <c r="K586" s="2">
+        <v>0</v>
+      </c>
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
       <c r="N586" s="1"/>
@@ -31087,7 +31900,7 @@
       <c r="H587" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="I587" s="11" t="s">
+      <c r="I587" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="J587" s="2">
@@ -31138,7 +31951,9 @@
       <c r="J588" s="2">
         <v>0</v>
       </c>
-      <c r="K588" s="2"/>
+      <c r="K588" s="2">
+        <v>0</v>
+      </c>
       <c r="L588" s="1" t="s">
         <v>22</v>
       </c>
@@ -31179,7 +31994,9 @@
       <c r="J589" s="2">
         <v>0</v>
       </c>
-      <c r="K589" s="2"/>
+      <c r="K589" s="2">
+        <v>0</v>
+      </c>
       <c r="L589" s="1" t="s">
         <v>22</v>
       </c>
@@ -31218,7 +32035,9 @@
       <c r="J590" s="2">
         <v>0</v>
       </c>
-      <c r="K590" s="2"/>
+      <c r="K590" s="2">
+        <v>0</v>
+      </c>
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
       <c r="N590" s="1"/>
@@ -31257,7 +32076,9 @@
       <c r="J591" s="2">
         <v>0</v>
       </c>
-      <c r="K591" s="2"/>
+      <c r="K591" s="2">
+        <v>0</v>
+      </c>
       <c r="L591" s="1"/>
       <c r="M591" s="1" t="s">
         <v>1945</v>
@@ -31298,7 +32119,9 @@
       <c r="J592" s="2">
         <v>0</v>
       </c>
-      <c r="K592" s="2"/>
+      <c r="K592" s="2">
+        <v>0</v>
+      </c>
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
       <c r="N592" s="1"/>
@@ -31335,7 +32158,9 @@
       <c r="J593" s="2">
         <v>0</v>
       </c>
-      <c r="K593" s="2"/>
+      <c r="K593" s="2">
+        <v>0</v>
+      </c>
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
       <c r="N593" s="1"/>
@@ -31372,7 +32197,9 @@
       <c r="J594" s="2">
         <v>0</v>
       </c>
-      <c r="K594" s="2"/>
+      <c r="K594" s="2">
+        <v>0</v>
+      </c>
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
       <c r="N594" s="1"/>
@@ -31409,7 +32236,9 @@
       <c r="J595" s="2">
         <v>0</v>
       </c>
-      <c r="K595" s="2"/>
+      <c r="K595" s="2">
+        <v>0</v>
+      </c>
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
       <c r="N595" s="1"/>
@@ -31446,7 +32275,9 @@
       <c r="J596" s="2">
         <v>0</v>
       </c>
-      <c r="K596" s="2"/>
+      <c r="K596" s="2">
+        <v>0</v>
+      </c>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
@@ -31483,7 +32314,9 @@
       <c r="J597" s="2">
         <v>0</v>
       </c>
-      <c r="K597" s="2"/>
+      <c r="K597" s="2">
+        <v>0</v>
+      </c>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
@@ -31520,7 +32353,9 @@
       <c r="J598" s="2">
         <v>0</v>
       </c>
-      <c r="K598" s="2"/>
+      <c r="K598" s="2">
+        <v>0</v>
+      </c>
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
       <c r="N598" s="1"/>
@@ -31557,7 +32392,9 @@
       <c r="J599" s="2">
         <v>0</v>
       </c>
-      <c r="K599" s="2"/>
+      <c r="K599" s="2">
+        <v>0</v>
+      </c>
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
       <c r="N599" s="1"/>
@@ -31594,7 +32431,9 @@
       <c r="J600" s="2">
         <v>0</v>
       </c>
-      <c r="K600" s="2"/>
+      <c r="K600" s="2">
+        <v>0</v>
+      </c>
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
       <c r="N600" s="1"/>
@@ -31631,7 +32470,9 @@
       <c r="J601" s="2">
         <v>0</v>
       </c>
-      <c r="K601" s="2"/>
+      <c r="K601" s="2">
+        <v>0</v>
+      </c>
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
       <c r="N601" s="1"/>
@@ -31668,7 +32509,9 @@
       <c r="J602" s="2">
         <v>0</v>
       </c>
-      <c r="K602" s="2"/>
+      <c r="K602" s="2">
+        <v>0</v>
+      </c>
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
       <c r="N602" s="1"/>
@@ -31705,7 +32548,9 @@
       <c r="J603" s="2">
         <v>0</v>
       </c>
-      <c r="K603" s="2"/>
+      <c r="K603" s="2">
+        <v>0</v>
+      </c>
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
       <c r="N603" s="1"/>
@@ -32006,7 +32851,9 @@
       <c r="J610" s="2">
         <v>0</v>
       </c>
-      <c r="K610" s="2"/>
+      <c r="K610" s="2">
+        <v>0</v>
+      </c>
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
       <c r="N610" s="1"/>
@@ -32043,7 +32890,9 @@
       <c r="J611" s="2">
         <v>0</v>
       </c>
-      <c r="K611" s="2"/>
+      <c r="K611" s="2">
+        <v>0</v>
+      </c>
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
       <c r="N611" s="1"/>
@@ -32080,7 +32929,9 @@
       <c r="J612" s="2">
         <v>0</v>
       </c>
-      <c r="K612" s="2"/>
+      <c r="K612" s="2">
+        <v>0</v>
+      </c>
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
       <c r="N612" s="1"/>
@@ -32117,7 +32968,9 @@
       <c r="J613" s="2">
         <v>0</v>
       </c>
-      <c r="K613" s="2"/>
+      <c r="K613" s="2">
+        <v>0</v>
+      </c>
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
       <c r="N613" s="1"/>
@@ -32154,7 +33007,9 @@
       <c r="J614" s="2">
         <v>0</v>
       </c>
-      <c r="K614" s="2"/>
+      <c r="K614" s="2">
+        <v>0</v>
+      </c>
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
       <c r="N614" s="1"/>
@@ -32191,7 +33046,9 @@
       <c r="J615" s="2">
         <v>0</v>
       </c>
-      <c r="K615" s="2"/>
+      <c r="K615" s="2">
+        <v>0</v>
+      </c>
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
       <c r="N615" s="1"/>
@@ -32228,7 +33085,9 @@
       <c r="J616" s="2">
         <v>0</v>
       </c>
-      <c r="K616" s="2"/>
+      <c r="K616" s="2">
+        <v>0</v>
+      </c>
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
       <c r="N616" s="1"/>
@@ -32265,7 +33124,9 @@
       <c r="J617" s="2">
         <v>0</v>
       </c>
-      <c r="K617" s="2"/>
+      <c r="K617" s="2">
+        <v>0</v>
+      </c>
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
       <c r="N617" s="1"/>
@@ -32302,7 +33163,9 @@
       <c r="J618" s="2">
         <v>0</v>
       </c>
-      <c r="K618" s="2"/>
+      <c r="K618" s="2">
+        <v>0</v>
+      </c>
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
       <c r="N618" s="1"/>
@@ -32339,7 +33202,9 @@
       <c r="J619" s="2">
         <v>0</v>
       </c>
-      <c r="K619" s="2"/>
+      <c r="K619" s="2">
+        <v>0</v>
+      </c>
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
       <c r="N619" s="1"/>
@@ -32376,7 +33241,9 @@
       <c r="J620" s="2">
         <v>0</v>
       </c>
-      <c r="K620" s="2"/>
+      <c r="K620" s="2">
+        <v>0</v>
+      </c>
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
       <c r="N620" s="1"/>
@@ -32413,7 +33280,9 @@
       <c r="J621" s="2">
         <v>0</v>
       </c>
-      <c r="K621" s="2"/>
+      <c r="K621" s="2">
+        <v>0</v>
+      </c>
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
       <c r="N621" s="1"/>
@@ -32534,7 +33403,9 @@
       <c r="J624" s="2">
         <v>0</v>
       </c>
-      <c r="K624" s="2"/>
+      <c r="K624" s="2">
+        <v>0</v>
+      </c>
       <c r="L624" s="1" t="s">
         <v>22</v>
       </c>
@@ -32573,7 +33444,9 @@
       <c r="J625" s="2">
         <v>0</v>
       </c>
-      <c r="K625" s="2"/>
+      <c r="K625" s="2">
+        <v>0</v>
+      </c>
       <c r="L625" s="1" t="s">
         <v>22</v>
       </c>
@@ -32612,7 +33485,9 @@
       <c r="J626" s="2">
         <v>0</v>
       </c>
-      <c r="K626" s="2"/>
+      <c r="K626" s="2">
+        <v>0</v>
+      </c>
       <c r="L626" s="1" t="s">
         <v>22</v>
       </c>
@@ -32651,7 +33526,9 @@
       <c r="J627" s="2">
         <v>0</v>
       </c>
-      <c r="K627" s="2"/>
+      <c r="K627" s="2">
+        <v>0</v>
+      </c>
       <c r="L627" s="1" t="s">
         <v>22</v>
       </c>
@@ -32688,7 +33565,9 @@
       <c r="J628" s="2">
         <v>0</v>
       </c>
-      <c r="K628" s="2"/>
+      <c r="K628" s="2">
+        <v>0</v>
+      </c>
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
       <c r="N628" s="1"/>
@@ -32723,7 +33602,9 @@
       <c r="J629" s="2">
         <v>0</v>
       </c>
-      <c r="K629" s="2"/>
+      <c r="K629" s="2">
+        <v>0</v>
+      </c>
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
       <c r="N629" s="1"/>
@@ -32760,7 +33641,9 @@
       <c r="J630" s="2">
         <v>0</v>
       </c>
-      <c r="K630" s="2"/>
+      <c r="K630" s="2">
+        <v>0</v>
+      </c>
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
       <c r="N630" s="1"/>
@@ -32797,7 +33680,9 @@
       <c r="J631" s="2">
         <v>0</v>
       </c>
-      <c r="K631" s="2"/>
+      <c r="K631" s="2">
+        <v>0</v>
+      </c>
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
       <c r="N631" s="1"/>
@@ -32834,7 +33719,9 @@
       <c r="J632" s="2">
         <v>0</v>
       </c>
-      <c r="K632" s="2"/>
+      <c r="K632" s="2">
+        <v>0</v>
+      </c>
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
       <c r="N632" s="1"/>
@@ -32871,7 +33758,9 @@
       <c r="J633" s="2">
         <v>0</v>
       </c>
-      <c r="K633" s="2"/>
+      <c r="K633" s="2">
+        <v>0</v>
+      </c>
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
       <c r="N633" s="1"/>
@@ -32908,7 +33797,9 @@
       <c r="J634" s="2">
         <v>0</v>
       </c>
-      <c r="K634" s="2"/>
+      <c r="K634" s="2">
+        <v>0</v>
+      </c>
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
       <c r="N634" s="1"/>
@@ -32945,7 +33836,9 @@
       <c r="J635" s="2">
         <v>0</v>
       </c>
-      <c r="K635" s="2"/>
+      <c r="K635" s="2">
+        <v>0</v>
+      </c>
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
       <c r="N635" s="1"/>
@@ -32982,7 +33875,9 @@
       <c r="J636" s="2">
         <v>0</v>
       </c>
-      <c r="K636" s="2"/>
+      <c r="K636" s="2">
+        <v>0</v>
+      </c>
       <c r="L636" s="1" t="s">
         <v>22</v>
       </c>
@@ -33023,7 +33918,9 @@
       <c r="J637" s="2">
         <v>0</v>
       </c>
-      <c r="K637" s="2"/>
+      <c r="K637" s="2">
+        <v>0</v>
+      </c>
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
       <c r="N637" s="1"/>
@@ -33060,7 +33957,9 @@
       <c r="J638" s="2">
         <v>0</v>
       </c>
-      <c r="K638" s="2"/>
+      <c r="K638" s="2">
+        <v>0</v>
+      </c>
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
       <c r="N638" s="1"/>
@@ -33097,7 +33996,9 @@
       <c r="J639" s="2">
         <v>0</v>
       </c>
-      <c r="K639" s="2"/>
+      <c r="K639" s="2">
+        <v>0</v>
+      </c>
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
       <c r="N639" s="1"/>
@@ -33134,7 +34035,9 @@
       <c r="J640" s="2">
         <v>0</v>
       </c>
-      <c r="K640" s="2"/>
+      <c r="K640" s="2">
+        <v>0</v>
+      </c>
       <c r="L640" s="1" t="s">
         <v>22</v>
       </c>
@@ -33177,7 +34080,9 @@
       <c r="J641" s="2">
         <v>0</v>
       </c>
-      <c r="K641" s="2"/>
+      <c r="K641" s="2">
+        <v>0</v>
+      </c>
       <c r="L641" s="1" t="s">
         <v>22</v>
       </c>
@@ -33210,7 +34115,7 @@
       <c r="H642" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="I642" s="11" t="s">
+      <c r="I642" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="J642" s="2">
@@ -33259,7 +34164,9 @@
       <c r="J643" s="2">
         <v>0</v>
       </c>
-      <c r="K643" s="2"/>
+      <c r="K643" s="2">
+        <v>0</v>
+      </c>
       <c r="L643" s="1" t="s">
         <v>19</v>
       </c>
@@ -33298,7 +34205,9 @@
       <c r="J644" s="2">
         <v>0</v>
       </c>
-      <c r="K644" s="2"/>
+      <c r="K644" s="2">
+        <v>0</v>
+      </c>
       <c r="L644" s="1" t="s">
         <v>19</v>
       </c>
@@ -33337,7 +34246,9 @@
       <c r="J645" s="2">
         <v>0</v>
       </c>
-      <c r="K645" s="2"/>
+      <c r="K645" s="2">
+        <v>0</v>
+      </c>
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
       <c r="N645" s="1"/>
@@ -33374,7 +34285,9 @@
       <c r="J646" s="2">
         <v>0</v>
       </c>
-      <c r="K646" s="2"/>
+      <c r="K646" s="2">
+        <v>0</v>
+      </c>
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
       <c r="N646" s="1"/>
@@ -33411,7 +34324,9 @@
       <c r="J647" s="2">
         <v>0</v>
       </c>
-      <c r="K647" s="2"/>
+      <c r="K647" s="2">
+        <v>0</v>
+      </c>
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
       <c r="N647" s="1"/>
@@ -33448,7 +34363,9 @@
       <c r="J648" s="2">
         <v>0</v>
       </c>
-      <c r="K648" s="2"/>
+      <c r="K648" s="2">
+        <v>0</v>
+      </c>
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
       <c r="N648" s="1"/>
@@ -33532,7 +34449,9 @@
       <c r="J650" s="2">
         <v>0</v>
       </c>
-      <c r="K650" s="2"/>
+      <c r="K650" s="2">
+        <v>0</v>
+      </c>
       <c r="L650" s="1"/>
       <c r="M650" s="1" t="s">
         <v>1745</v>
@@ -33575,7 +34494,9 @@
       <c r="J651" s="2">
         <v>0</v>
       </c>
-      <c r="K651" s="2"/>
+      <c r="K651" s="2">
+        <v>0</v>
+      </c>
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
       <c r="N651" s="1"/>
@@ -33612,7 +34533,9 @@
       <c r="J652" s="2">
         <v>0</v>
       </c>
-      <c r="K652" s="2"/>
+      <c r="K652" s="2">
+        <v>0</v>
+      </c>
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
       <c r="N652" s="1" t="s">
@@ -33651,7 +34574,9 @@
       <c r="J653" s="2">
         <v>0</v>
       </c>
-      <c r="K653" s="2"/>
+      <c r="K653" s="2">
+        <v>0</v>
+      </c>
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
       <c r="N653" s="1"/>
@@ -33688,7 +34613,9 @@
       <c r="J654" s="2">
         <v>0</v>
       </c>
-      <c r="K654" s="2"/>
+      <c r="K654" s="2">
+        <v>0</v>
+      </c>
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
       <c r="N654" s="1"/>
@@ -33719,7 +34646,7 @@
       <c r="H655" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="I655" s="11" t="s">
+      <c r="I655" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="J655" s="2">
@@ -33770,7 +34697,9 @@
       <c r="J656" s="2">
         <v>0</v>
       </c>
-      <c r="K656" s="2"/>
+      <c r="K656" s="2">
+        <v>0</v>
+      </c>
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
       <c r="N656" s="1"/>
@@ -33807,7 +34736,9 @@
       <c r="J657" s="2">
         <v>0</v>
       </c>
-      <c r="K657" s="2"/>
+      <c r="K657" s="2">
+        <v>0</v>
+      </c>
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
       <c r="N657" s="1"/>
@@ -33844,7 +34775,9 @@
       <c r="J658" s="2">
         <v>0</v>
       </c>
-      <c r="K658" s="2"/>
+      <c r="K658" s="2">
+        <v>0</v>
+      </c>
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
       <c r="N658" s="1"/>
@@ -33881,7 +34814,9 @@
       <c r="J659" s="2">
         <v>0</v>
       </c>
-      <c r="K659" s="2"/>
+      <c r="K659" s="2">
+        <v>0</v>
+      </c>
       <c r="L659" s="1" t="s">
         <v>22</v>
       </c>
@@ -33914,7 +34849,7 @@
       <c r="H660" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="I660" s="11" t="s">
+      <c r="I660" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="J660" s="2">
@@ -33965,7 +34900,9 @@
       <c r="J661" s="2">
         <v>0</v>
       </c>
-      <c r="K661" s="2"/>
+      <c r="K661" s="2">
+        <v>0</v>
+      </c>
       <c r="L661" s="1" t="s">
         <v>22</v>
       </c>
@@ -34004,7 +34941,9 @@
       <c r="J662" s="2">
         <v>0</v>
       </c>
-      <c r="K662" s="2"/>
+      <c r="K662" s="2">
+        <v>0</v>
+      </c>
       <c r="L662" s="1" t="s">
         <v>22</v>
       </c>
@@ -34045,7 +34984,9 @@
       <c r="J663" s="2">
         <v>0</v>
       </c>
-      <c r="K663" s="2"/>
+      <c r="K663" s="2">
+        <v>0</v>
+      </c>
       <c r="L663" s="1" t="s">
         <v>22</v>
       </c>
@@ -34086,7 +35027,9 @@
       <c r="J664" s="2">
         <v>0</v>
       </c>
-      <c r="K664" s="2"/>
+      <c r="K664" s="2">
+        <v>0</v>
+      </c>
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
@@ -34121,7 +35064,9 @@
       <c r="J665" s="2">
         <v>0</v>
       </c>
-      <c r="K665" s="2"/>
+      <c r="K665" s="2">
+        <v>0</v>
+      </c>
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
       <c r="N665" s="1"/>
@@ -34158,7 +35103,9 @@
       <c r="J666" s="2">
         <v>0</v>
       </c>
-      <c r="K666" s="2"/>
+      <c r="K666" s="2">
+        <v>0</v>
+      </c>
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
       <c r="N666" s="1"/>
@@ -34195,7 +35142,9 @@
       <c r="J667" s="2">
         <v>0</v>
       </c>
-      <c r="K667" s="2"/>
+      <c r="K667" s="2">
+        <v>0</v>
+      </c>
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
       <c r="N667" s="1"/>
@@ -34232,7 +35181,9 @@
       <c r="J668" s="2">
         <v>0</v>
       </c>
-      <c r="K668" s="2"/>
+      <c r="K668" s="2">
+        <v>0</v>
+      </c>
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
       <c r="N668" s="1"/>
@@ -34269,7 +35220,9 @@
       <c r="J669" s="2">
         <v>0</v>
       </c>
-      <c r="K669" s="2"/>
+      <c r="K669" s="2">
+        <v>0</v>
+      </c>
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
       <c r="N669" s="1"/>
@@ -34306,7 +35259,9 @@
       <c r="J670" s="2">
         <v>0</v>
       </c>
-      <c r="K670" s="2"/>
+      <c r="K670" s="2">
+        <v>0</v>
+      </c>
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
       <c r="N670" s="1"/>
@@ -34343,7 +35298,9 @@
       <c r="J671" s="2">
         <v>0</v>
       </c>
-      <c r="K671" s="2"/>
+      <c r="K671" s="2">
+        <v>0</v>
+      </c>
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
       <c r="N671" s="1"/>
@@ -34380,7 +35337,9 @@
       <c r="J672" s="2">
         <v>0</v>
       </c>
-      <c r="K672" s="2"/>
+      <c r="K672" s="2">
+        <v>0</v>
+      </c>
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
       <c r="N672" s="1"/>
@@ -34411,7 +35370,7 @@
       <c r="H673" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I673" s="11" t="s">
+      <c r="I673" s="1" t="s">
         <v>1621</v>
       </c>
       <c r="J673" s="2">
@@ -34462,7 +35421,9 @@
       <c r="J674" s="2">
         <v>0</v>
       </c>
-      <c r="K674" s="2"/>
+      <c r="K674" s="2">
+        <v>0</v>
+      </c>
       <c r="L674" s="1" t="s">
         <v>22</v>
       </c>
@@ -34497,7 +35458,7 @@
       <c r="H675" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I675" s="11" t="s">
+      <c r="I675" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="J675" s="2">
@@ -34548,7 +35509,9 @@
       <c r="J676" s="2">
         <v>1</v>
       </c>
-      <c r="K676" s="2"/>
+      <c r="K676" s="2">
+        <v>0</v>
+      </c>
       <c r="L676" s="1" t="s">
         <v>22</v>
       </c>
@@ -34591,7 +35554,9 @@
       <c r="J677" s="2">
         <v>0</v>
       </c>
-      <c r="K677" s="2"/>
+      <c r="K677" s="2">
+        <v>0</v>
+      </c>
       <c r="L677" s="1" t="s">
         <v>22</v>
       </c>
@@ -34630,7 +35595,9 @@
       <c r="J678" s="2">
         <v>0</v>
       </c>
-      <c r="K678" s="2"/>
+      <c r="K678" s="2">
+        <v>0</v>
+      </c>
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
       <c r="N678" s="1"/>
@@ -34667,7 +35634,9 @@
       <c r="J679" s="2">
         <v>0</v>
       </c>
-      <c r="K679" s="2"/>
+      <c r="K679" s="2">
+        <v>0</v>
+      </c>
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
@@ -34704,7 +35673,9 @@
       <c r="J680" s="2">
         <v>0</v>
       </c>
-      <c r="K680" s="2"/>
+      <c r="K680" s="2">
+        <v>0</v>
+      </c>
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
       <c r="N680" s="1"/>
@@ -34741,7 +35712,9 @@
       <c r="J681" s="2">
         <v>0</v>
       </c>
-      <c r="K681" s="2"/>
+      <c r="K681" s="2">
+        <v>0</v>
+      </c>
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
       <c r="N681" s="1"/>
@@ -34776,7 +35749,9 @@
       <c r="J682" s="2">
         <v>0</v>
       </c>
-      <c r="K682" s="2"/>
+      <c r="K682" s="2">
+        <v>0</v>
+      </c>
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
       <c r="N682" s="1"/>
@@ -34813,7 +35788,9 @@
       <c r="J683" s="2">
         <v>0</v>
       </c>
-      <c r="K683" s="2"/>
+      <c r="K683" s="2">
+        <v>0</v>
+      </c>
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
       <c r="N683" s="1"/>
@@ -34850,7 +35827,9 @@
       <c r="J684" s="2">
         <v>0</v>
       </c>
-      <c r="K684" s="2"/>
+      <c r="K684" s="2">
+        <v>0</v>
+      </c>
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
       <c r="N684" s="1"/>
@@ -34887,7 +35866,9 @@
       <c r="J685" s="2">
         <v>0</v>
       </c>
-      <c r="K685" s="2"/>
+      <c r="K685" s="2">
+        <v>0</v>
+      </c>
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
       <c r="N685" s="1"/>
@@ -34924,7 +35905,9 @@
       <c r="J686" s="2">
         <v>0</v>
       </c>
-      <c r="K686" s="2"/>
+      <c r="K686" s="2">
+        <v>0</v>
+      </c>
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
@@ -34961,7 +35944,9 @@
       <c r="J687" s="2">
         <v>0</v>
       </c>
-      <c r="K687" s="2"/>
+      <c r="K687" s="2">
+        <v>0</v>
+      </c>
       <c r="L687" s="1" t="s">
         <v>2022</v>
       </c>
@@ -35002,7 +35987,9 @@
       <c r="J688" s="2">
         <v>0</v>
       </c>
-      <c r="K688" s="2"/>
+      <c r="K688" s="2">
+        <v>0</v>
+      </c>
       <c r="L688" s="1" t="s">
         <v>2022</v>
       </c>
@@ -35043,7 +36030,9 @@
       <c r="J689" s="2">
         <v>0</v>
       </c>
-      <c r="K689" s="2"/>
+      <c r="K689" s="2">
+        <v>0</v>
+      </c>
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
       <c r="N689" s="1"/>
@@ -35080,7 +36069,9 @@
       <c r="J690" s="2">
         <v>0</v>
       </c>
-      <c r="K690" s="2"/>
+      <c r="K690" s="2">
+        <v>0</v>
+      </c>
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
       <c r="N690" s="1"/>
@@ -35117,7 +36108,9 @@
       <c r="J691" s="2">
         <v>0</v>
       </c>
-      <c r="K691" s="2"/>
+      <c r="K691" s="2">
+        <v>0</v>
+      </c>
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
       <c r="N691" s="1"/>
@@ -35199,7 +36192,9 @@
       <c r="J693" s="2">
         <v>0</v>
       </c>
-      <c r="K693" s="2"/>
+      <c r="K693" s="2">
+        <v>0</v>
+      </c>
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
       <c r="N693" s="1"/>
@@ -35236,7 +36231,9 @@
       <c r="J694" s="2">
         <v>0</v>
       </c>
-      <c r="K694" s="2"/>
+      <c r="K694" s="2">
+        <v>0</v>
+      </c>
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
       <c r="N694" s="1"/>
@@ -35273,7 +36270,9 @@
       <c r="J695" s="2">
         <v>0</v>
       </c>
-      <c r="K695" s="2"/>
+      <c r="K695" s="2">
+        <v>0</v>
+      </c>
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
       <c r="N695" s="1"/>
@@ -35310,7 +36309,9 @@
       <c r="J696" s="2">
         <v>0</v>
       </c>
-      <c r="K696" s="2"/>
+      <c r="K696" s="2">
+        <v>0</v>
+      </c>
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
       <c r="N696" s="1"/>
@@ -35347,7 +36348,9 @@
       <c r="J697" s="2">
         <v>0</v>
       </c>
-      <c r="K697" s="2"/>
+      <c r="K697" s="2">
+        <v>0</v>
+      </c>
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
       <c r="N697" s="1"/>
@@ -35384,7 +36387,9 @@
       <c r="J698" s="2">
         <v>0</v>
       </c>
-      <c r="K698" s="2"/>
+      <c r="K698" s="2">
+        <v>0</v>
+      </c>
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
       <c r="N698" s="1"/>
@@ -35421,7 +36426,9 @@
       <c r="J699" s="2">
         <v>0</v>
       </c>
-      <c r="K699" s="2"/>
+      <c r="K699" s="2">
+        <v>0</v>
+      </c>
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
       <c r="N699" s="1"/>
@@ -35458,7 +36465,9 @@
       <c r="J700" s="2">
         <v>0</v>
       </c>
-      <c r="K700" s="2"/>
+      <c r="K700" s="2">
+        <v>0</v>
+      </c>
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
       <c r="N700" s="1"/>
@@ -35495,7 +36504,9 @@
       <c r="J701" s="2">
         <v>0</v>
       </c>
-      <c r="K701" s="2"/>
+      <c r="K701" s="2">
+        <v>0</v>
+      </c>
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
       <c r="N701" s="1"/>
@@ -35532,7 +36543,9 @@
       <c r="J702" s="2">
         <v>0</v>
       </c>
-      <c r="K702" s="2"/>
+      <c r="K702" s="2">
+        <v>0</v>
+      </c>
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
       <c r="N702" s="1"/>
@@ -35567,7 +36580,9 @@
       <c r="J703" s="2">
         <v>0</v>
       </c>
-      <c r="K703" s="2"/>
+      <c r="K703" s="2">
+        <v>0</v>
+      </c>
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
       <c r="N703" s="1"/>
@@ -35604,7 +36619,9 @@
       <c r="J704" s="2">
         <v>0</v>
       </c>
-      <c r="K704" s="2"/>
+      <c r="K704" s="2">
+        <v>0</v>
+      </c>
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
       <c r="N704" s="1"/>
@@ -35641,7 +36658,9 @@
       <c r="J705" s="2">
         <v>0</v>
       </c>
-      <c r="K705" s="2"/>
+      <c r="K705" s="2">
+        <v>0</v>
+      </c>
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
@@ -35678,7 +36697,9 @@
       <c r="J706" s="2">
         <v>0</v>
       </c>
-      <c r="K706" s="2"/>
+      <c r="K706" s="2">
+        <v>0</v>
+      </c>
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
       <c r="N706" s="1"/>
@@ -35715,7 +36736,9 @@
       <c r="J707" s="2">
         <v>0</v>
       </c>
-      <c r="K707" s="2"/>
+      <c r="K707" s="2">
+        <v>0</v>
+      </c>
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
       <c r="N707" s="1"/>
@@ -35752,7 +36775,9 @@
       <c r="J708" s="2">
         <v>0</v>
       </c>
-      <c r="K708" s="2"/>
+      <c r="K708" s="2">
+        <v>0</v>
+      </c>
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
       <c r="N708" s="1"/>
@@ -35789,7 +36814,9 @@
       <c r="J709" s="2">
         <v>0</v>
       </c>
-      <c r="K709" s="2"/>
+      <c r="K709" s="2">
+        <v>0</v>
+      </c>
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
       <c r="N709" s="1"/>
@@ -35820,7 +36847,7 @@
       <c r="H710" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="I710" s="11" t="s">
+      <c r="I710" s="1" t="s">
         <v>1711</v>
       </c>
       <c r="J710" s="2">
@@ -35871,7 +36898,9 @@
       <c r="J711" s="2">
         <v>1</v>
       </c>
-      <c r="K711" s="2"/>
+      <c r="K711" s="2">
+        <v>0</v>
+      </c>
       <c r="L711" s="1" t="s">
         <v>19</v>
       </c>
@@ -35906,7 +36935,7 @@
       <c r="H712" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="I712" s="11" t="s">
+      <c r="I712" s="1" t="s">
         <v>1717</v>
       </c>
       <c r="J712" s="2">
@@ -35957,7 +36986,9 @@
       <c r="J713" s="2">
         <v>0</v>
       </c>
-      <c r="K713" s="2"/>
+      <c r="K713" s="2">
+        <v>0</v>
+      </c>
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
       <c r="N713" s="1"/>
@@ -35994,7 +37025,9 @@
       <c r="J714" s="2">
         <v>0</v>
       </c>
-      <c r="K714" s="2"/>
+      <c r="K714" s="2">
+        <v>0</v>
+      </c>
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
       <c r="N714" s="1"/>
@@ -36031,7 +37064,9 @@
       <c r="J715" s="2">
         <v>0</v>
       </c>
-      <c r="K715" s="2"/>
+      <c r="K715" s="2">
+        <v>0</v>
+      </c>
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
       <c r="N715" s="1"/>
@@ -36068,7 +37103,9 @@
       <c r="J716" s="2">
         <v>0</v>
       </c>
-      <c r="K716" s="2"/>
+      <c r="K716" s="2">
+        <v>0</v>
+      </c>
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
       <c r="N716" s="1"/>
@@ -36105,7 +37142,9 @@
       <c r="J717" s="2">
         <v>0</v>
       </c>
-      <c r="K717" s="2"/>
+      <c r="K717" s="2">
+        <v>0</v>
+      </c>
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
       <c r="N717" s="1"/>
